--- a/pomiary grain grow.xlsx
+++ b/pomiary grain grow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>rozmiar danych</t>
   </si>
@@ -52,16 +52,33 @@
   </si>
   <si>
     <t>10000x10000</t>
+  </si>
+  <si>
+    <t>kbzowski@agh.edu.pl</t>
+  </si>
+  <si>
+    <t>dla tej samej przestrzeni</t>
+  </si>
+  <si>
+    <t>weak scalability - zwiekszamy przestrzen proporcjonalnie do ilosci prockow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +101,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D11"/>
+  <dimension ref="A2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +424,33 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -418,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -431,8 +477,14 @@
       <c r="D4">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -445,8 +497,14 @@
       <c r="D5">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -460,7 +518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -474,7 +532,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -488,7 +546,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -502,7 +560,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -516,7 +574,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -530,7 +588,15 @@
         <v>5943</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/pomiary grain grow.xlsx
+++ b/pomiary grain grow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>rozmiar danych</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>weak scalability - zwiekszamy przestrzen proporcjonalnie do ilosci prockow</t>
+  </si>
+  <si>
+    <t>space/cores</t>
+  </si>
+  <si>
+    <t>number of tasks for one core:</t>
+  </si>
+  <si>
+    <t>Busy Leafs algorithm</t>
+  </si>
+  <si>
+    <t>F0035595649/007/15</t>
   </si>
 </sst>
 </file>
@@ -410,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,9 +434,10 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>4</v>
       </c>
@@ -450,7 +463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -464,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -484,7 +497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -504,7 +517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -517,8 +530,14 @@
       <c r="D6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -531,8 +550,35 @@
       <c r="D7">
         <v>208</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -545,8 +591,32 @@
       <c r="D8">
         <v>358</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>162</v>
+      </c>
+      <c r="J8">
+        <v>417</v>
+      </c>
+      <c r="K8">
+        <v>900</v>
+      </c>
+      <c r="L8">
+        <v>1359</v>
+      </c>
+      <c r="M8">
+        <v>2545</v>
+      </c>
+      <c r="N8">
+        <v>2359</v>
+      </c>
+      <c r="O8">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -559,8 +629,32 @@
       <c r="D9">
         <v>1653</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>764</v>
+      </c>
+      <c r="J9">
+        <v>647</v>
+      </c>
+      <c r="K9">
+        <v>1019</v>
+      </c>
+      <c r="L9">
+        <v>1396</v>
+      </c>
+      <c r="M9">
+        <v>1493</v>
+      </c>
+      <c r="N9">
+        <v>2440</v>
+      </c>
+      <c r="O9">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -573,8 +667,32 @@
       <c r="D10">
         <v>3016</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>2736</v>
+      </c>
+      <c r="J10">
+        <v>1146</v>
+      </c>
+      <c r="K10">
+        <v>1260</v>
+      </c>
+      <c r="L10">
+        <v>1521</v>
+      </c>
+      <c r="M10">
+        <v>1808</v>
+      </c>
+      <c r="N10">
+        <v>2308</v>
+      </c>
+      <c r="O10">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -587,10 +705,882 @@
       <c r="D11">
         <v>5943</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>14164</v>
+      </c>
+      <c r="J11">
+        <v>4984</v>
+      </c>
+      <c r="K11">
+        <v>2561</v>
+      </c>
+      <c r="L11">
+        <v>2131</v>
+      </c>
+      <c r="M11">
+        <v>2405</v>
+      </c>
+      <c r="N11">
+        <v>2698</v>
+      </c>
+      <c r="O11">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>68153</v>
+      </c>
+      <c r="J12">
+        <v>22197</v>
+      </c>
+      <c r="K12">
+        <v>10106</v>
+      </c>
+      <c r="L12">
+        <v>6903</v>
+      </c>
+      <c r="M12">
+        <v>6831</v>
+      </c>
+      <c r="N12">
+        <v>7070</v>
+      </c>
+      <c r="O12">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>432309</v>
+      </c>
+      <c r="J13">
+        <v>147447</v>
+      </c>
+      <c r="K13">
+        <v>65538</v>
+      </c>
+      <c r="L13">
+        <v>43053</v>
+      </c>
+      <c r="M13">
+        <v>41181</v>
+      </c>
+      <c r="N13">
+        <v>40775</v>
+      </c>
+      <c r="O13">
+        <v>40871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>850560</v>
+      </c>
+      <c r="J14">
+        <v>291565</v>
+      </c>
+      <c r="K14">
+        <v>129057</v>
+      </c>
+      <c r="L14">
+        <v>84767</v>
+      </c>
+      <c r="M14">
+        <v>80167</v>
+      </c>
+      <c r="N14">
+        <v>79690</v>
+      </c>
+      <c r="O14">
+        <v>78969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>1785336</v>
+      </c>
+      <c r="J15">
+        <v>598514</v>
+      </c>
+      <c r="K15">
+        <v>263654</v>
+      </c>
+      <c r="L15">
+        <v>177483</v>
+      </c>
+      <c r="M15">
+        <v>166947</v>
+      </c>
+      <c r="N15">
+        <v>163891</v>
+      </c>
+      <c r="O15">
+        <v>160834</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>123</v>
+      </c>
+      <c r="J20">
+        <v>239</v>
+      </c>
+      <c r="K20">
+        <v>500</v>
+      </c>
+      <c r="L20">
+        <v>779</v>
+      </c>
+      <c r="M20">
+        <v>1821</v>
+      </c>
+      <c r="N20">
+        <v>1250</v>
+      </c>
+      <c r="O20">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>1023</v>
+      </c>
+      <c r="J21">
+        <v>399</v>
+      </c>
+      <c r="K21">
+        <v>578</v>
+      </c>
+      <c r="L21">
+        <v>837</v>
+      </c>
+      <c r="M21">
+        <v>825</v>
+      </c>
+      <c r="N21">
+        <v>1367</v>
+      </c>
+      <c r="O21">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>2662</v>
+      </c>
+      <c r="J22">
+        <v>1062</v>
+      </c>
+      <c r="K22">
+        <v>969</v>
+      </c>
+      <c r="L22">
+        <v>879</v>
+      </c>
+      <c r="M22">
+        <v>1176</v>
+      </c>
+      <c r="N22">
+        <v>1572</v>
+      </c>
+      <c r="O22">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>13878</v>
+      </c>
+      <c r="J23">
+        <v>4851</v>
+      </c>
+      <c r="K23">
+        <v>2349</v>
+      </c>
+      <c r="L23">
+        <v>1766</v>
+      </c>
+      <c r="M23">
+        <v>1835</v>
+      </c>
+      <c r="N23">
+        <v>2301</v>
+      </c>
+      <c r="O23">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>65147</v>
+      </c>
+      <c r="J24">
+        <v>22044</v>
+      </c>
+      <c r="K24">
+        <v>9897</v>
+      </c>
+      <c r="L24">
+        <v>6611</v>
+      </c>
+      <c r="M24">
+        <v>6338</v>
+      </c>
+      <c r="N24">
+        <v>6411</v>
+      </c>
+      <c r="O24">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>429074</v>
+      </c>
+      <c r="J25">
+        <v>147013</v>
+      </c>
+      <c r="K25">
+        <v>67017</v>
+      </c>
+      <c r="L25">
+        <v>44021</v>
+      </c>
+      <c r="M25">
+        <v>40656</v>
+      </c>
+      <c r="N25">
+        <v>40283</v>
+      </c>
+      <c r="O25">
+        <v>40040</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>846530</v>
+      </c>
+      <c r="J26">
+        <v>289460</v>
+      </c>
+      <c r="K26">
+        <v>128455</v>
+      </c>
+      <c r="L26">
+        <v>85767</v>
+      </c>
+      <c r="M26">
+        <v>80702</v>
+      </c>
+      <c r="N26">
+        <v>79270</v>
+      </c>
+      <c r="O26">
+        <v>78468</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>1784510</v>
+      </c>
+      <c r="J27">
+        <v>597497</v>
+      </c>
+      <c r="K27">
+        <v>264576</v>
+      </c>
+      <c r="L27">
+        <v>178132</v>
+      </c>
+      <c r="M27">
+        <v>166023</v>
+      </c>
+      <c r="N27">
+        <v>164377</v>
+      </c>
+      <c r="O27">
+        <v>161849</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+      <c r="L33">
+        <v>12</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <v>20</v>
+      </c>
+      <c r="O33">
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>206</v>
+      </c>
+      <c r="J34">
+        <v>2262</v>
+      </c>
+      <c r="K34">
+        <v>9513</v>
+      </c>
+      <c r="L34">
+        <v>16369</v>
+      </c>
+      <c r="M34">
+        <v>24049</v>
+      </c>
+      <c r="N34">
+        <v>28789</v>
+      </c>
+      <c r="O34">
+        <v>36266</v>
+      </c>
+      <c r="R34">
+        <v>112.17</v>
+      </c>
+    </row>
+    <row r="35" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>777</v>
+      </c>
+      <c r="J35">
+        <v>1563</v>
+      </c>
+      <c r="K35">
+        <v>9547</v>
+      </c>
+      <c r="L35">
+        <v>16632</v>
+      </c>
+      <c r="M35">
+        <v>21509</v>
+      </c>
+      <c r="N35">
+        <v>28829</v>
+      </c>
+      <c r="O35">
+        <v>35108</v>
+      </c>
+    </row>
+    <row r="36" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>2758</v>
+      </c>
+      <c r="J36">
+        <v>2583</v>
+      </c>
+      <c r="K36">
+        <v>8406</v>
+      </c>
+      <c r="L36">
+        <v>16501</v>
+      </c>
+      <c r="M36">
+        <v>23053</v>
+      </c>
+      <c r="N36">
+        <v>29359</v>
+      </c>
+      <c r="O36">
+        <v>35643</v>
+      </c>
+    </row>
+    <row r="37" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>14168</v>
+      </c>
+      <c r="J37">
+        <v>6261</v>
+      </c>
+      <c r="K37">
+        <v>7874</v>
+      </c>
+      <c r="L37">
+        <v>14300</v>
+      </c>
+      <c r="M37">
+        <v>23031</v>
+      </c>
+      <c r="N37">
+        <v>29512</v>
+      </c>
+      <c r="O37">
+        <v>35484</v>
+      </c>
+    </row>
+    <row r="38" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>66303</v>
+      </c>
+      <c r="J38">
+        <v>24437</v>
+      </c>
+      <c r="K38">
+        <v>12025</v>
+      </c>
+      <c r="L38">
+        <v>13889</v>
+      </c>
+      <c r="M38">
+        <v>18478</v>
+      </c>
+      <c r="N38">
+        <v>25076</v>
+      </c>
+      <c r="O38">
+        <v>35809</v>
+      </c>
+    </row>
+    <row r="39" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>430033</v>
+      </c>
+      <c r="J39">
+        <v>153180</v>
+      </c>
+      <c r="K39">
+        <v>69547</v>
+      </c>
+      <c r="L39">
+        <v>45050</v>
+      </c>
+      <c r="M39">
+        <v>42698</v>
+      </c>
+      <c r="N39">
+        <v>47994</v>
+      </c>
+      <c r="O39">
+        <v>53750</v>
+      </c>
+    </row>
+    <row r="40" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <v>849909</v>
+      </c>
+      <c r="J40">
+        <v>300651</v>
+      </c>
+      <c r="K40">
+        <v>135539</v>
+      </c>
+      <c r="L40">
+        <v>88898</v>
+      </c>
+      <c r="M40">
+        <v>82054</v>
+      </c>
+      <c r="N40">
+        <v>81591</v>
+      </c>
+      <c r="O40">
+        <v>84156</v>
+      </c>
+    </row>
+    <row r="41" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>1747496</v>
+      </c>
+      <c r="J41">
+        <v>610503</v>
+      </c>
+      <c r="K41">
+        <v>274415</v>
+      </c>
+      <c r="L41">
+        <v>180236</v>
+      </c>
+      <c r="M41">
+        <v>166545</v>
+      </c>
+      <c r="N41">
+        <v>164711</v>
+      </c>
+      <c r="O41">
+        <v>161991</v>
+      </c>
+    </row>
+    <row r="45" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>8</v>
+      </c>
+      <c r="L46">
+        <v>12</v>
+      </c>
+      <c r="M46">
+        <v>16</v>
+      </c>
+      <c r="N46">
+        <v>20</v>
+      </c>
+      <c r="O46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>139</v>
+      </c>
+      <c r="J47">
+        <v>1160</v>
+      </c>
+      <c r="K47">
+        <v>4673</v>
+      </c>
+      <c r="L47">
+        <v>7921</v>
+      </c>
+      <c r="M47">
+        <v>11755</v>
+      </c>
+      <c r="N47">
+        <v>14171</v>
+      </c>
+      <c r="O47">
+        <v>18097</v>
+      </c>
+    </row>
+    <row r="48" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>741</v>
+      </c>
+      <c r="J48">
+        <v>894</v>
+      </c>
+      <c r="K48">
+        <v>4584</v>
+      </c>
+      <c r="L48">
+        <v>8141</v>
+      </c>
+      <c r="M48">
+        <v>10675</v>
+      </c>
+      <c r="N48">
+        <v>14675</v>
+      </c>
+      <c r="O48">
+        <v>18153</v>
+      </c>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>2627</v>
+      </c>
+      <c r="J49">
+        <v>1498</v>
+      </c>
+      <c r="K49">
+        <v>4098</v>
+      </c>
+      <c r="L49">
+        <v>8045</v>
+      </c>
+      <c r="M49">
+        <v>11447</v>
+      </c>
+      <c r="N49">
+        <v>14851</v>
+      </c>
+      <c r="O49">
+        <v>18112</v>
+      </c>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>13883</v>
+      </c>
+      <c r="J50">
+        <v>5414</v>
+      </c>
+      <c r="K50">
+        <v>3661</v>
+      </c>
+      <c r="L50">
+        <v>7119</v>
+      </c>
+      <c r="M50">
+        <v>10227</v>
+      </c>
+      <c r="N50">
+        <v>14797</v>
+      </c>
+      <c r="O50">
+        <v>18295</v>
+      </c>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>64960</v>
+      </c>
+      <c r="J51">
+        <v>23305</v>
+      </c>
+      <c r="K51">
+        <v>10731</v>
+      </c>
+      <c r="L51">
+        <v>7932</v>
+      </c>
+      <c r="M51">
+        <v>11165</v>
+      </c>
+      <c r="N51">
+        <v>12658</v>
+      </c>
+      <c r="O51">
+        <v>14487</v>
+      </c>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>425661</v>
+      </c>
+      <c r="J52">
+        <v>150156</v>
+      </c>
+      <c r="K52">
+        <v>67674</v>
+      </c>
+      <c r="L52">
+        <v>44429</v>
+      </c>
+      <c r="M52">
+        <v>40956</v>
+      </c>
+      <c r="N52">
+        <v>40813</v>
+      </c>
+      <c r="O52">
+        <v>42314</v>
+      </c>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53">
+        <v>881189</v>
+      </c>
+      <c r="J53">
+        <v>295335</v>
+      </c>
+      <c r="K53">
+        <v>133116</v>
+      </c>
+      <c r="L53">
+        <v>86753</v>
+      </c>
+      <c r="M53">
+        <v>80951</v>
+      </c>
+      <c r="N53">
+        <v>79601</v>
+      </c>
+      <c r="O53">
+        <v>79056</v>
+      </c>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <v>1771224</v>
+      </c>
+      <c r="J54">
+        <v>596272</v>
+      </c>
+      <c r="K54">
+        <v>268239</v>
+      </c>
+      <c r="L54">
+        <v>174486</v>
+      </c>
+      <c r="M54">
+        <v>167737</v>
+      </c>
+      <c r="N54">
+        <v>162763</v>
+      </c>
+      <c r="O54">
+        <v>160425</v>
       </c>
     </row>
   </sheetData>

--- a/pomiary grain grow.xlsx
+++ b/pomiary grain grow.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
   <si>
     <t>rozmiar danych</t>
   </si>
@@ -43,21 +43,24 @@
     <t>Work stealing algorithm: weak scalability</t>
   </si>
   <si>
+    <t>Work Stealing algorithm for recrystalization</t>
+  </si>
+  <si>
     <t>500x500</t>
   </si>
   <si>
     <t>number of tasks for one core:</t>
   </si>
   <si>
+    <t>space</t>
+  </si>
+  <si>
     <t>1000x1000</t>
   </si>
   <si>
     <t>space/cores</t>
   </si>
   <si>
-    <t>space</t>
-  </si>
-  <si>
     <t>cores</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>7000x7000</t>
+  </si>
+  <si>
+    <t>800x800</t>
   </si>
   <si>
     <t>10000x10000</t>
@@ -202,10 +208,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:V54"/>
+  <dimension ref="A2:AD54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -218,7 +224,12 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.1417004048583"/>
     <col collapsed="false" hidden="false" max="17" min="8" style="0" width="8.5748987854251"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="34.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="22" min="19" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.5708502024291"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="8.59919028340081"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.59919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,10 +284,13 @@
       <c r="R5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="W5" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1790</v>
@@ -288,21 +302,45 @@
         <v>1373</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>100</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="W6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>9241</v>
@@ -314,7 +352,7 @@
         <v>4981</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>2</v>
@@ -338,18 +376,21 @@
         <v>24</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>41849</v>
@@ -385,15 +426,18 @@
         <v>3479</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="W8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>273567</v>
@@ -429,7 +473,7 @@
         <v>2947</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>2</v>
@@ -437,10 +481,13 @@
       <c r="T9" s="0" t="n">
         <v>32032</v>
       </c>
+      <c r="W9" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>501662</v>
@@ -452,7 +499,7 @@
         <v>295217</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2736</v>
@@ -476,7 +523,7 @@
         <v>2738</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>4</v>
@@ -484,10 +531,13 @@
       <c r="T10" s="0" t="n">
         <v>23668</v>
       </c>
+      <c r="W10" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1031792</v>
@@ -499,7 +549,7 @@
         <v>586847</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>14164</v>
@@ -523,7 +573,7 @@
         <v>3062</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>8</v>
@@ -531,10 +581,22 @@
       <c r="T11" s="0" t="n">
         <v>20794</v>
       </c>
+      <c r="W11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>77391</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>91489</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>848028</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>68153</v>
@@ -558,7 +620,7 @@
         <v>7299</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>12</v>
@@ -569,7 +631,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>432309</v>
@@ -593,7 +655,7 @@
         <v>40871</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>16</v>
@@ -604,7 +666,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>850560</v>
@@ -628,7 +690,7 @@
         <v>78969</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>20</v>
@@ -639,7 +701,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1785336</v>
@@ -663,7 +725,7 @@
         <v>160834</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>24</v>
@@ -675,13 +737,13 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>50</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>50</v>
@@ -689,7 +751,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>2</v>
@@ -713,13 +775,13 @@
         <v>24</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,7 +810,7 @@
         <v>1758</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>1</v>
@@ -780,7 +842,7 @@
         <v>1992</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S21" s="0" t="n">
         <v>2</v>
@@ -791,7 +853,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>2662</v>
@@ -815,7 +877,7 @@
         <v>2059</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>4</v>
@@ -826,7 +888,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>13878</v>
@@ -850,7 +912,7 @@
         <v>2195</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S23" s="0" t="n">
         <v>8</v>
@@ -861,7 +923,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>65147</v>
@@ -885,7 +947,7 @@
         <v>6569</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S24" s="0" t="n">
         <v>12</v>
@@ -896,7 +958,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>429074</v>
@@ -920,7 +982,7 @@
         <v>40040</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S25" s="0" t="n">
         <v>16</v>
@@ -931,7 +993,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>846530</v>
@@ -955,7 +1017,7 @@
         <v>78468</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S26" s="0" t="n">
         <v>20</v>
@@ -966,7 +1028,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1784510</v>
@@ -990,7 +1052,7 @@
         <v>161849</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S27" s="0" t="n">
         <v>24</v>
@@ -1001,15 +1063,15 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V30" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V31" s="0" t="n">
         <v>112.17</v>
@@ -1017,13 +1079,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>100</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S32" s="0" t="n">
         <v>100</v>
@@ -1031,7 +1093,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2</v>
@@ -1055,13 +1117,13 @@
         <v>24</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,7 +1152,7 @@
         <v>36266</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S34" s="0" t="n">
         <v>1</v>
@@ -1122,7 +1184,7 @@
         <v>35108</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S35" s="0" t="n">
         <v>2</v>
@@ -1133,7 +1195,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G36" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>2758</v>
@@ -1157,7 +1219,7 @@
         <v>35643</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S36" s="0" t="n">
         <v>4</v>
@@ -1168,7 +1230,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>14168</v>
@@ -1192,7 +1254,7 @@
         <v>35484</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S37" s="0" t="n">
         <v>8</v>
@@ -1203,7 +1265,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>66303</v>
@@ -1227,7 +1289,7 @@
         <v>35809</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S38" s="0" t="n">
         <v>12</v>
@@ -1238,7 +1300,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>430033</v>
@@ -1262,7 +1324,7 @@
         <v>53750</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S39" s="0" t="n">
         <v>16</v>
@@ -1273,7 +1335,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>849909</v>
@@ -1297,7 +1359,7 @@
         <v>84156</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S40" s="0" t="n">
         <v>20</v>
@@ -1308,7 +1370,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1747496</v>
@@ -1332,7 +1394,7 @@
         <v>161991</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S41" s="0" t="n">
         <v>24</v>
@@ -1343,13 +1405,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>50</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S45" s="0" t="n">
         <v>50</v>
@@ -1357,7 +1419,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2</v>
@@ -1381,13 +1443,13 @@
         <v>24</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,7 +1478,7 @@
         <v>18097</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S47" s="0" t="n">
         <v>1</v>
@@ -1448,7 +1510,7 @@
         <v>18153</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S48" s="0" t="n">
         <v>2</v>
@@ -1459,7 +1521,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G49" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>2627</v>
@@ -1483,7 +1545,7 @@
         <v>18112</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S49" s="0" t="n">
         <v>4</v>
@@ -1494,7 +1556,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>13883</v>
@@ -1518,7 +1580,7 @@
         <v>18295</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S50" s="0" t="n">
         <v>8</v>
@@ -1529,7 +1591,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G51" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>64960</v>
@@ -1553,7 +1615,7 @@
         <v>14487</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S51" s="0" t="n">
         <v>12</v>
@@ -1564,7 +1626,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G52" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>425661</v>
@@ -1588,7 +1650,7 @@
         <v>42314</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S52" s="0" t="n">
         <v>16</v>
@@ -1599,7 +1661,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G53" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>881189</v>
@@ -1623,7 +1685,7 @@
         <v>79056</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S53" s="0" t="n">
         <v>20</v>
@@ -1634,7 +1696,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G54" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1771224</v>
@@ -1658,7 +1720,7 @@
         <v>160425</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S54" s="0" t="n">
         <v>24</v>

--- a/pomiary grain grow.xlsx
+++ b/pomiary grain grow.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t>rozmiar danych</t>
   </si>
@@ -81,6 +81,15 @@
   <si>
     <t>6000x4000</t>
   </si>
+  <si>
+    <t>number of all taksk:</t>
+  </si>
+  <si>
+    <t>without work stealing algorithm: weak scalability</t>
+  </si>
+  <si>
+    <t>simple parallel algorithm</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,6 +120,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -241,10 +256,30 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart289.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Work stealing algorithm: weak scalability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -255,11 +290,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$24</c:f>
+              <c:f>Arkusz1!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7000x7000</c:v>
+                  <c:v>Work stealing algorithm: weak scalability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -276,37 +311,33 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="4"/>
           </c:marker>
-          <c:smooth val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:f>Arkusz1!$S$8:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -314,68 +345,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$24:$O$24</c:f>
+              <c:f>Arkusz1!$T$8:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>275037</c:v>
+                  <c:v>5793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152714</c:v>
+                  <c:v>5963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79585</c:v>
+                  <c:v>6018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39899</c:v>
+                  <c:v>6843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34211</c:v>
+                  <c:v>8387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32528</c:v>
+                  <c:v>10518</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30326</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31088</c:v>
+                  <c:v>12334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="56330032"/>
-        <c:axId val="75264000"/>
+        <c:axId val="74332220"/>
+        <c:axId val="30468655"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56330032"/>
+        <c:axId val="74332220"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="75264000"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="75264000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
@@ -395,7 +403,45 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56330032"/>
+        <c:crossAx val="30468655"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30468655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="74332220"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -430,10 +476,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart290.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Work stealing algorithm: weak scalability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -444,11 +510,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$13</c:f>
+              <c:f>Arkusz1!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10000x10000</c:v>
+                  <c:v>Work stealing algorithm: weak scalability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -465,37 +531,34 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="4"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:f>Arkusz1!$S$20:$S$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -503,43 +566,40 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$13:$O$13</c:f>
+              <c:f>Arkusz1!$T$20:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>565296</c:v>
+                  <c:v>5995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>312850</c:v>
+                  <c:v>6068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164028</c:v>
+                  <c:v>6133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81061</c:v>
+                  <c:v>7054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70184</c:v>
+                  <c:v>8551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65339</c:v>
+                  <c:v>10602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61368</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>62512</c:v>
+                  <c:v>12371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87974457"/>
-        <c:axId val="46997240"/>
+        <c:axId val="74536273"/>
+        <c:axId val="41795194"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87974457"/>
+        <c:axId val="74536273"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,11 +615,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46997240"/>
+        <c:crossAx val="41795194"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46997240"/>
+        <c:axId val="41795194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +644,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87974457"/>
+        <c:crossAx val="74536273"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -619,10 +679,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart291.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>500x500</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -633,11 +713,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$R$5</c:f>
+              <c:f>Arkusz1!$G$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Work stealing algorithm: weak scalability</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -654,59 +734,37 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="4"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Arkusz1!$S$9:$S$14</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:smooth val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$S$8:$S$14</c:f>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -714,270 +772,43 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$T$8:$T$14</c:f>
+              <c:f>Arkusz1!$H$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5793</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5963</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6018</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6843</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8387</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10518</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12334</c:v>
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="31167361"/>
-        <c:axId val="64239683"/>
+        <c:axId val="98177937"/>
+        <c:axId val="9500022"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31167361"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="64239683"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="64239683"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="31167361"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$R$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Work stealing algorithm: weak scalability</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:smooth val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Arkusz1!$S$20:$S$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$S$20:$S$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$T$20:$T$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6068</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6133</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7054</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8551</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12371</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="77808810"/>
-        <c:axId val="85633375"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="77808810"/>
+        <c:axId val="98177937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,11 +824,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85633375"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="9500022"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85633375"/>
+        <c:axId val="9500022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,574 +853,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77808810"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>500x500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:smooth val="1"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$8:$O$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1190</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>843</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>409</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="19791764"/>
-        <c:axId val="11502198"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="19791764"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="11502198"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="11502198"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="19791764"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$G$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000x1000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:smooth val="1"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$9:$O$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5204</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3223</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1630</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>631</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="67084523"/>
-        <c:axId val="98735105"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="67084523"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="98735105"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98735105"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="67084523"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2000x2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:smooth val="1"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$10:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>22152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6141</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3229</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3261</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2891</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2488</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2691</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="37262811"/>
-        <c:axId val="13323789"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="37262811"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="13323789"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="13323789"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="37262811"/>
+        <c:crossAx val="98177937"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1624,10 +888,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart292.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>1000x1000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1638,11 +922,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$11</c:f>
+              <c:f>Arkusz1!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5000x5000</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1659,7 +943,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="4"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1697,43 +981,43 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$11:$O$11</c:f>
+              <c:f>Arkusz1!$H$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>139995</c:v>
+                  <c:v>5204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77163</c:v>
+                  <c:v>3223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40463</c:v>
+                  <c:v>1630</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20601</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18111</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16705</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15965</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16165</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="27957351"/>
-        <c:axId val="18259894"/>
+        <c:axId val="34442817"/>
+        <c:axId val="49067966"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27957351"/>
+        <c:axId val="34442817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,11 +1033,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18259894"/>
+        <c:crossAx val="49067966"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18259894"/>
+        <c:axId val="49067966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1062,843 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27957351"/>
+        <c:crossAx val="34442817"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart293.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2000x2000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000x2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="4"/>
+          </c:marker>
+          <c:smooth val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="49743948"/>
+        <c:axId val="57295647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49743948"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="57295647"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57295647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="49743948"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart294.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>5000x5000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="4"/>
+          </c:marker>
+          <c:smooth val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$11:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>139995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="9518913"/>
+        <c:axId val="38182278"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="9518913"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="38182278"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="38182278"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="9518913"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart295.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>7000x7000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7000x7000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="4"/>
+          </c:marker>
+          <c:smooth val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>275037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="86774831"/>
+        <c:axId val="190780"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86774831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="190780"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="190780"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="86774831"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart296.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>10000x10000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000x10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="4"/>
+          </c:marker>
+          <c:smooth val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>565296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="27491494"/>
+        <c:axId val="42071282"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="27491494"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="42071282"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42071282"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="27491494"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1818,15 +1938,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>488880</xdr:colOff>
+      <xdr:colOff>568800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1834,8 +1954,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="24609600" y="74880"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="24690600" y="47880"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1847,16 +1967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>720360</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38880</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>394560</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:colOff>474480</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1864,8 +1984,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="24509880" y="3608640"/>
-        <a:ext cx="5765040" cy="3240360"/>
+        <a:off x="24590880" y="3581640"/>
+        <a:ext cx="5763960" cy="3422160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1878,15 +1998,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>700920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:colOff>781920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1540440</xdr:colOff>
+      <xdr:colOff>1620360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1894,8 +2014,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="700920" y="2134440"/>
-        <a:ext cx="5754960" cy="3240360"/>
+        <a:off x="781920" y="2107440"/>
+        <a:ext cx="5753880" cy="3300480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1907,16 +2027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1628640</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1924,8 +2044,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1687680" y="5989320"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="785520" y="6127560"/>
+        <a:ext cx="5758560" cy="3512880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1937,16 +2057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>686160</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1529280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1954,8 +2074,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8104680" y="5801760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="686160" y="10112040"/>
+        <a:ext cx="5758560" cy="3528000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1967,16 +2087,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>756720</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1599840</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1984,8 +2104,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1658880" y="9663120"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="756720" y="14513400"/>
+        <a:ext cx="5758560" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1997,16 +2117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>738360</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1581480</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2014,8 +2134,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8104680" y="9663120"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="738360" y="18564120"/>
+        <a:ext cx="5758560" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2027,16 +2147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>779040</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1622160</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2044,8 +2164,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1658880" y="13737960"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="779040" y="22689360"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2063,10 +2183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T26"/>
+  <dimension ref="A2:T58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E31" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2730,6 +2850,704 @@
         <v>12371</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>832</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>348</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>5204</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>3195</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1432</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>726</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>572</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>553</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>22152</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>12464</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>5824</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>2966</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>2028</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>139995</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>78400</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>37611</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>19094</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>13115</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>12941</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>12976</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>275037</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>150886</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>73367</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>37505</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>25693</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>25620</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>25550</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>25548</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>565296</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>304583</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>149058</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>77466</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>53278</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>52671</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>52304</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>52353</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>355</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>5204</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>2917</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>1448</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>755</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>743</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>562</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>22152</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>11894</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>5951</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>3044</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>2122</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>2427</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>2157</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>139995</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>73679</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>37074</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>19281</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>13557</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>14876</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>13844</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>13367</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>275037</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>144247</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>72456</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>38372</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>26554</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>29354</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>27867</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>27448</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>565296</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>297507</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>149203</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>77708</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>54392</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>60571</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>56887</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>54891</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>674</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>5204</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>2803</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>1398</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>743</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>529</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>658</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>551</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>22152</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>11791</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>5827</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>3025</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>3125</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>2617</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>2152</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>139995</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>73997</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>37197</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>19502</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>13426</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>14673</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>13873</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>13198</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>275037</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>143695</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>72993</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>37523</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>26386</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>28972</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>27142</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>26677</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>565296</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>296328</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>147240</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>76607</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>65983</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>59934</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>56197</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>52981</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2749,7 +3567,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2775,7 +3593,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/pomiary grain grow.xlsx
+++ b/pomiary grain grow.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>rozmiar danych</t>
   </si>
@@ -256,7 +256,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart289.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart705.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -311,7 +311,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -374,11 +374,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74332220"/>
-        <c:axId val="30468655"/>
+        <c:axId val="20891943"/>
+        <c:axId val="38865823"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74332220"/>
+        <c:axId val="20891943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,11 +403,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30468655"/>
+        <c:crossAx val="38865823"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30468655"/>
+        <c:axId val="38865823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,7 +441,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74332220"/>
+        <c:crossAx val="20891943"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -476,7 +476,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart290.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart706.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -531,7 +531,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -595,11 +595,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74536273"/>
-        <c:axId val="41795194"/>
+        <c:axId val="51796178"/>
+        <c:axId val="65809713"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74536273"/>
+        <c:axId val="51796178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,11 +615,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41795194"/>
+        <c:crossAx val="65809713"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41795194"/>
+        <c:axId val="65809713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +644,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74536273"/>
+        <c:crossAx val="51796178"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -679,7 +679,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart291.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart707.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -734,7 +734,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -780,35 +780,35 @@
                   <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>843</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>570</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>387</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>317</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>252</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>409</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="98177937"/>
-        <c:axId val="9500022"/>
+        <c:axId val="36172796"/>
+        <c:axId val="87401179"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98177937"/>
+        <c:axId val="36172796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,11 +824,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9500022"/>
+        <c:crossAx val="87401179"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9500022"/>
+        <c:axId val="87401179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +853,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98177937"/>
+        <c:crossAx val="36172796"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -888,7 +888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart292.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart708.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -943,7 +943,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -989,35 +989,35 @@
                   <c:v>5204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3223</c:v>
+                  <c:v>2777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1630</c:v>
+                  <c:v>1369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>769</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1102</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>890</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>631</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>974</c:v>
+                  <c:v>988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="34442817"/>
-        <c:axId val="49067966"/>
+        <c:axId val="60266863"/>
+        <c:axId val="53291438"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34442817"/>
+        <c:axId val="60266863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,11 +1033,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49067966"/>
+        <c:crossAx val="53291438"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49067966"/>
+        <c:axId val="53291438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1062,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="34442817"/>
+        <c:crossAx val="60266863"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1097,7 +1097,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart293.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart709.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1152,7 +1152,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1198,35 +1198,35 @@
                   <c:v>22152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12603</c:v>
+                  <c:v>11604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6141</c:v>
+                  <c:v>5739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3229</c:v>
+                  <c:v>2958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3261</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2891</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2488</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2691</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49743948"/>
-        <c:axId val="57295647"/>
+        <c:axId val="19993711"/>
+        <c:axId val="99792876"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49743948"/>
+        <c:axId val="19993711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,11 +1242,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57295647"/>
+        <c:crossAx val="99792876"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57295647"/>
+        <c:axId val="99792876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1271,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49743948"/>
+        <c:crossAx val="19993711"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1306,7 +1306,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart294.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart710.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1361,7 +1361,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1407,35 +1407,35 @@
                   <c:v>139995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77163</c:v>
+                  <c:v>73352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40463</c:v>
+                  <c:v>36750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20601</c:v>
+                  <c:v>19074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18111</c:v>
+                  <c:v>13086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16705</c:v>
+                  <c:v>13083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15965</c:v>
+                  <c:v>13041</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16165</c:v>
+                  <c:v>13022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="9518913"/>
-        <c:axId val="38182278"/>
+        <c:axId val="73084041"/>
+        <c:axId val="41222193"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9518913"/>
+        <c:axId val="73084041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,11 +1451,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38182278"/>
+        <c:crossAx val="41222193"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38182278"/>
+        <c:axId val="41222193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1480,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9518913"/>
+        <c:crossAx val="73084041"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1515,7 +1515,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart295.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart711.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1570,7 +1570,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1616,35 +1616,35 @@
                   <c:v>275037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152714</c:v>
+                  <c:v>143166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79585</c:v>
+                  <c:v>71644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39899</c:v>
+                  <c:v>37364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34211</c:v>
+                  <c:v>25688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32528</c:v>
+                  <c:v>25695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30326</c:v>
+                  <c:v>25698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31088</c:v>
+                  <c:v>25603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86774831"/>
-        <c:axId val="190780"/>
+        <c:axId val="67716337"/>
+        <c:axId val="70790853"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86774831"/>
+        <c:axId val="67716337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,11 +1660,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190780"/>
+        <c:crossAx val="70790853"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190780"/>
+        <c:axId val="70790853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1689,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86774831"/>
+        <c:crossAx val="67716337"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1724,7 +1724,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart296.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart712.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1779,7 +1779,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1825,35 +1825,35 @@
                   <c:v>565296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>312850</c:v>
+                  <c:v>294020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164028</c:v>
+                  <c:v>146879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81061</c:v>
+                  <c:v>76676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70184</c:v>
+                  <c:v>53132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65339</c:v>
+                  <c:v>52832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61368</c:v>
+                  <c:v>52665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62512</c:v>
+                  <c:v>52554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="27491494"/>
-        <c:axId val="42071282"/>
+        <c:axId val="33069876"/>
+        <c:axId val="9623890"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27491494"/>
+        <c:axId val="33069876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,11 +1869,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42071282"/>
+        <c:crossAx val="9623890"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42071282"/>
+        <c:axId val="9623890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +1898,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27491494"/>
+        <c:crossAx val="33069876"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1938,15 +1938,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>568800</xdr:colOff>
+      <xdr:colOff>595440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1954,8 +1954,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="24690600" y="47880"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:off x="24717600" y="38880"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1968,15 +1968,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>474480</xdr:colOff>
+      <xdr:colOff>501120</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1984,8 +1984,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="24590880" y="3581640"/>
-        <a:ext cx="5763960" cy="3422160"/>
+        <a:off x="24617880" y="3572640"/>
+        <a:ext cx="5763600" cy="3421800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1998,15 +1998,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>781920</xdr:colOff>
+      <xdr:colOff>808920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1620360</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2014,8 +2014,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="781920" y="2107440"/>
-        <a:ext cx="5753880" cy="3300480"/>
+        <a:off x="808920" y="2098440"/>
+        <a:ext cx="5753520" cy="3300120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2028,15 +2028,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>785520</xdr:colOff>
+      <xdr:colOff>812520</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1628640</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2044,8 +2044,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="785520" y="6127560"/>
-        <a:ext cx="5758560" cy="3512880"/>
+        <a:off x="812520" y="6118560"/>
+        <a:ext cx="5758200" cy="3512520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2058,15 +2058,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>686160</xdr:colOff>
+      <xdr:colOff>713160</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1529280</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:colOff>1555920</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2074,8 +2074,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="686160" y="10112040"/>
-        <a:ext cx="5758560" cy="3528000"/>
+        <a:off x="713160" y="10103040"/>
+        <a:ext cx="5758200" cy="3527640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2088,15 +2088,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>756720</xdr:colOff>
+      <xdr:colOff>783720</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1599840</xdr:colOff>
+      <xdr:colOff>1626480</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2104,8 +2104,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="756720" y="14513400"/>
-        <a:ext cx="5758560" cy="3238200"/>
+        <a:off x="783720" y="14504400"/>
+        <a:ext cx="5758200" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2118,15 +2118,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>738360</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:colOff>765360</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1581480</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:colOff>1608120</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2134,8 +2134,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="738360" y="18564120"/>
-        <a:ext cx="5758560" cy="3238200"/>
+        <a:off x="765360" y="18555120"/>
+        <a:ext cx="5758200" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2148,15 +2148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>779040</xdr:colOff>
+      <xdr:colOff>806040</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1622160</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10440</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2164,8 +2164,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="779040" y="22689360"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:off x="806040" y="22680360"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2183,10 +2183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T58"/>
+  <dimension ref="A2:T68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E31" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2319,25 +2319,25 @@
         <v>1190</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>843</v>
+        <v>665</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>570</v>
+        <v>336</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>317</v>
+        <v>601</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>252</v>
+        <v>398</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>409</v>
+        <v>790</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>14</v>
@@ -2364,25 +2364,25 @@
         <v>5204</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3223</v>
+        <v>2777</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1630</v>
+        <v>1369</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1102</v>
+        <v>498</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>890</v>
+        <v>665</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>974</v>
+        <v>988</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>6</v>
@@ -2402,25 +2402,25 @@
         <v>22152</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>12603</v>
+        <v>11604</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>6141</v>
+        <v>5739</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3229</v>
+        <v>2958</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3261</v>
+        <v>2040</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>2891</v>
+        <v>2067</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>2488</v>
+        <v>2039</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>2691</v>
+        <v>2029</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>16</v>
@@ -2440,25 +2440,25 @@
         <v>139995</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>77163</v>
+        <v>73352</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>40463</v>
+        <v>36750</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>20601</v>
+        <v>19074</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>18111</v>
+        <v>13086</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>16705</v>
+        <v>13083</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>15965</v>
+        <v>13041</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>16165</v>
+        <v>13022</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>17</v>
@@ -2478,25 +2478,25 @@
         <v>275037</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>154989</v>
+        <v>147191</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>78814</v>
+        <v>71930</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>40334</v>
+        <v>37721</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>35132</v>
+        <v>25954</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>32478</v>
+        <v>25806</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>30672</v>
+        <v>25697</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>31275</v>
+        <v>25665</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>18</v>
@@ -2516,25 +2516,25 @@
         <v>565296</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>312850</v>
+        <v>294020</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>164028</v>
+        <v>146879</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>81061</v>
+        <v>76676</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>70184</v>
+        <v>53132</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>65339</v>
+        <v>52832</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>61368</v>
+        <v>52665</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>62512</v>
+        <v>52554</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>19</v>
@@ -2619,25 +2619,25 @@
         <v>1190</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>856</v>
+        <v>641</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>484</v>
+        <v>327</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>488</v>
+        <v>329</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>14</v>
@@ -2657,25 +2657,25 @@
         <v>5204</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>3069</v>
+        <v>2733</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>1547</v>
+        <v>1355</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>755</v>
+        <v>709</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>1038</v>
+        <v>481</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>817</v>
+        <v>500</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>919</v>
+        <v>708</v>
       </c>
       <c r="R21" s="0" t="s">
         <v>6</v>
@@ -2695,25 +2695,25 @@
         <v>22152</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>12467</v>
+        <v>11496</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>6335</v>
+        <v>5680</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>3169</v>
+        <v>2940</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>3262</v>
+        <v>2015</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2834</v>
+        <v>2026</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>2485</v>
+        <v>2018</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>2674</v>
+        <v>2053</v>
       </c>
       <c r="R22" s="0" t="s">
         <v>16</v>
@@ -2733,25 +2733,25 @@
         <v>139995</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>78216</v>
+        <v>73006</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>39991</v>
+        <v>36431</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>20390</v>
+        <v>18991</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>17653</v>
+        <v>13128</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>16745</v>
+        <v>13050</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>15270</v>
+        <v>13016</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>16047</v>
+        <v>13000</v>
       </c>
       <c r="R23" s="0" t="s">
         <v>17</v>
@@ -2771,25 +2771,25 @@
         <v>275037</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>152714</v>
+        <v>143166</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>79585</v>
+        <v>71644</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>39899</v>
+        <v>37364</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>34211</v>
+        <v>25688</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>32528</v>
+        <v>25695</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>30326</v>
+        <v>25698</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>31088</v>
+        <v>25603</v>
       </c>
       <c r="R24" s="0" t="s">
         <v>18</v>
@@ -2809,25 +2809,25 @@
         <v>565296</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>311184</v>
+        <v>292483</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>162719</v>
+        <v>146244</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>78799</v>
+        <v>76016</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>71290</v>
+        <v>52797</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>65058</v>
+        <v>52752</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>61775</v>
+        <v>52477</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>61614</v>
+        <v>52423</v>
       </c>
       <c r="R25" s="0" t="s">
         <v>19</v>
@@ -2890,13 +2890,10 @@
         <v>24</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="S30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="T30" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,10 +2925,13 @@
         <v>348</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,10 +2963,13 @@
         <v>525</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>5891</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,10 +3001,13 @@
         <v>2013</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>5868</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,10 +3039,13 @@
         <v>12976</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>6197</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,10 +3077,13 @@
         <v>25548</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>9055</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,21 +3115,35 @@
         <v>52353</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>9661</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="S37" s="0" t="n">
+      <c r="T37" s="0" t="n">
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R38" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="T37" s="0" t="n">
-        <v>12390</v>
+      <c r="T38" s="0" t="n">
+        <v>12937</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,6 +3158,12 @@
       <c r="H41" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="R41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="0" t="s">
@@ -3161,6 +3193,15 @@
       <c r="O42" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="R42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="T42" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G43" s="0" t="s">
@@ -3190,6 +3231,15 @@
       <c r="O43" s="0" t="n">
         <v>67</v>
       </c>
+      <c r="R43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>5703</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G44" s="0" t="s">
@@ -3219,6 +3269,15 @@
       <c r="O44" s="0" t="n">
         <v>333</v>
       </c>
+      <c r="R44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>5876</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="0" t="s">
@@ -3248,6 +3307,15 @@
       <c r="O45" s="0" t="n">
         <v>1865</v>
       </c>
+      <c r="R45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>6245</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="0" t="s">
@@ -3277,6 +3345,15 @@
       <c r="O46" s="0" t="n">
         <v>13367</v>
       </c>
+      <c r="R46" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>6376</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G47" s="0" t="s">
@@ -3306,6 +3383,15 @@
       <c r="O47" s="0" t="n">
         <v>27448</v>
       </c>
+      <c r="R47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>9945</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G48" s="0" t="s">
@@ -3334,6 +3420,26 @@
       </c>
       <c r="O48" s="0" t="n">
         <v>54891</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>12986</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3546,6 +3652,217 @@
       </c>
       <c r="O58" s="0" t="n">
         <v>52981</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>5204</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>3293</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>748</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>716</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>714</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>556</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>22152</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>12650</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>5926</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>3037</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>2189</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>2414</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>2172</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>139995</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>78067</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>38124</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>19321</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>13598</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>15178</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>14083</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>13297</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>275037</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>150377</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>73723</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>38090</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>26555</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>28489</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>27276</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>26172</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>565296</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>303362</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>150476</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>77227</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>53968</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>59728</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>54863</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>53903</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3884,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3593,7 +3910,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/pomiary grain grow.xlsx
+++ b/pomiary grain grow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="31">
   <si>
     <t>rozmiar danych</t>
   </si>
@@ -89,6 +89,27 @@
   <si>
     <t>simple parallel algorithm</t>
   </si>
+  <si>
+    <t>Work stealing weak scalability</t>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+  </si>
+  <si>
+    <t>Recrystalization</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>BusyLeafs weak scalability</t>
+  </si>
+  <si>
+    <t>Parallel weak scalability</t>
+  </si>
+  <si>
+    <t>BusyLeafs: weak scalability</t>
+  </si>
 </sst>
 </file>
 
@@ -123,9 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -243,7 +265,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -337,11 +358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39827328"/>
-        <c:axId val="39825792"/>
+        <c:axId val="121988992"/>
+        <c:axId val="121990528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39827328"/>
+        <c:axId val="121988992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,12 +372,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39825792"/>
+        <c:crossAx val="121990528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39825792"/>
+        <c:axId val="121990528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,14 +388,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39827328"/>
+        <c:crossAx val="121988992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -437,7 +457,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10574451349787278"/>
+          <c:y val="0.19480351414406533"/>
+          <c:w val="0.58793489164835189"/>
+          <c:h val="0.68921660834062404"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -526,11 +556,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40558976"/>
-        <c:axId val="40598144"/>
+        <c:axId val="124388096"/>
+        <c:axId val="124389632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40558976"/>
+        <c:axId val="124388096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,12 +570,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40598144"/>
+        <c:crossAx val="124389632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40598144"/>
+        <c:axId val="124389632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40558976"/>
+        <c:crossAx val="124388096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -715,11 +745,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81987840"/>
-        <c:axId val="81995648"/>
+        <c:axId val="124410112"/>
+        <c:axId val="124416000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81987840"/>
+        <c:axId val="124410112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,12 +759,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81995648"/>
+        <c:crossAx val="124416000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81995648"/>
+        <c:axId val="124416000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81987840"/>
+        <c:crossAx val="124410112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -810,7 +840,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -904,11 +933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42765696"/>
-        <c:axId val="82544512"/>
+        <c:axId val="124448768"/>
+        <c:axId val="124450304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42765696"/>
+        <c:axId val="124448768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,12 +947,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82544512"/>
+        <c:crossAx val="124450304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82544512"/>
+        <c:axId val="124450304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,14 +963,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42765696"/>
+        <c:crossAx val="124448768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -999,7 +1027,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1093,11 +1120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42785408"/>
-        <c:axId val="69214976"/>
+        <c:axId val="124478976"/>
+        <c:axId val="124480512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42785408"/>
+        <c:axId val="124478976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,12 +1134,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69214976"/>
+        <c:crossAx val="124480512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69214976"/>
+        <c:axId val="124480512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,14 +1150,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42785408"/>
+        <c:crossAx val="124478976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1188,7 +1214,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1282,11 +1307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82638720"/>
-        <c:axId val="82757120"/>
+        <c:axId val="124488704"/>
+        <c:axId val="124515072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82638720"/>
+        <c:axId val="124488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,12 +1321,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82757120"/>
+        <c:crossAx val="124515072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82757120"/>
+        <c:axId val="124515072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,14 +1337,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82638720"/>
+        <c:crossAx val="124488704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1377,7 +1401,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1471,11 +1494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83974400"/>
-        <c:axId val="83985152"/>
+        <c:axId val="125129472"/>
+        <c:axId val="125131008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83974400"/>
+        <c:axId val="125129472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,12 +1508,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83985152"/>
+        <c:crossAx val="125131008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83985152"/>
+        <c:axId val="125131008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,14 +1524,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83974400"/>
+        <c:crossAx val="125129472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1558,7 +1580,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1652,11 +1673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40216064"/>
-        <c:axId val="40217600"/>
+        <c:axId val="122019200"/>
+        <c:axId val="123143296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40216064"/>
+        <c:axId val="122019200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,12 +1687,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40217600"/>
+        <c:crossAx val="123143296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40217600"/>
+        <c:axId val="123143296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,14 +1703,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40216064"/>
+        <c:crossAx val="122019200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1739,7 +1759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1833,11 +1852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141614464"/>
-        <c:axId val="143178368"/>
+        <c:axId val="123176064"/>
+        <c:axId val="123177600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141614464"/>
+        <c:axId val="123176064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,12 +1866,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143178368"/>
+        <c:crossAx val="123177600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143178368"/>
+        <c:axId val="123177600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,14 +1882,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141614464"/>
+        <c:crossAx val="123176064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1920,7 +1938,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2014,11 +2031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40570880"/>
-        <c:axId val="40573952"/>
+        <c:axId val="123273600"/>
+        <c:axId val="123275136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40570880"/>
+        <c:axId val="123273600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,12 +2045,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40573952"/>
+        <c:crossAx val="123275136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40573952"/>
+        <c:axId val="123275136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,14 +2061,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40570880"/>
+        <c:crossAx val="123273600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2101,7 +2117,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2195,11 +2210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40561280"/>
-        <c:axId val="40563072"/>
+        <c:axId val="123303808"/>
+        <c:axId val="123305344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40561280"/>
+        <c:axId val="123303808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,12 +2224,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40563072"/>
+        <c:crossAx val="123305344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40563072"/>
+        <c:axId val="123305344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,14 +2240,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40561280"/>
+        <c:crossAx val="123303808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2282,7 +2296,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2376,11 +2389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42517248"/>
-        <c:axId val="42599936"/>
+        <c:axId val="123334656"/>
+        <c:axId val="123336192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42517248"/>
+        <c:axId val="123334656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,12 +2403,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42599936"/>
+        <c:crossAx val="123336192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42599936"/>
+        <c:axId val="123336192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,14 +2419,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42517248"/>
+        <c:crossAx val="123334656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2559,11 +2571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40095104"/>
-        <c:axId val="40180352"/>
+        <c:axId val="123356672"/>
+        <c:axId val="123358208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40095104"/>
+        <c:axId val="123356672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,12 +2585,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40180352"/>
+        <c:crossAx val="123358208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40180352"/>
+        <c:axId val="123358208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40095104"/>
+        <c:crossAx val="123356672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2748,11 +2760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40690816"/>
-        <c:axId val="40731776"/>
+        <c:axId val="123182464"/>
+        <c:axId val="123382400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40690816"/>
+        <c:axId val="123182464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,12 +2774,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40731776"/>
+        <c:crossAx val="123382400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40731776"/>
+        <c:axId val="123382400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40690816"/>
+        <c:crossAx val="123182464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3002,11 +3014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40569088"/>
-        <c:axId val="40596608"/>
+        <c:axId val="124324864"/>
+        <c:axId val="124355328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40569088"/>
+        <c:axId val="124324864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,12 +3028,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40596608"/>
+        <c:crossAx val="124355328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40596608"/>
+        <c:axId val="124355328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40569088"/>
+        <c:crossAx val="124324864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3344,16 +3356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>74735</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427160</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3824,10 +3836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T68"/>
+  <dimension ref="A3:AH68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="J49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3842,26 +3854,58 @@
     <col min="18" max="18" width="34.5703125"/>
     <col min="19" max="22" width="8.5703125"/>
     <col min="23" max="23" width="25.5703125"/>
-    <col min="24" max="1025" width="8.5703125"/>
+    <col min="24" max="29" width="8.5703125"/>
+    <col min="30" max="30" width="34.28515625" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" customWidth="1"/>
+    <col min="32" max="32" width="17.140625" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125"/>
+    <col min="34" max="34" width="17" customWidth="1"/>
+    <col min="35" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1190</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3874,8 +3918,23 @@
       <c r="R5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>135564</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>131190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3895,8 +3954,23 @@
       <c r="S6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <v>138865</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>132019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3940,8 +4014,23 @@
       <c r="T7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE7">
+        <v>8</v>
+      </c>
+      <c r="AF7">
+        <v>138692</v>
+      </c>
+      <c r="AG7">
+        <v>8</v>
+      </c>
+      <c r="AH7">
+        <v>132153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3985,8 +4074,23 @@
       <c r="T8">
         <v>5793</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE8">
+        <v>12</v>
+      </c>
+      <c r="AF8">
+        <v>158563</v>
+      </c>
+      <c r="AG8">
+        <v>12</v>
+      </c>
+      <c r="AH8">
+        <v>154153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4030,8 +4134,23 @@
       <c r="T9">
         <v>5963</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9">
+        <v>16</v>
+      </c>
+      <c r="AF9">
+        <v>210843</v>
+      </c>
+      <c r="AG9">
+        <v>16</v>
+      </c>
+      <c r="AH9">
+        <v>206145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>6</v>
       </c>
@@ -4068,8 +4187,23 @@
       <c r="T10">
         <v>6018</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10">
+        <v>20</v>
+      </c>
+      <c r="AF10">
+        <v>260158</v>
+      </c>
+      <c r="AG10">
+        <v>20</v>
+      </c>
+      <c r="AH10">
+        <v>252345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>8</v>
       </c>
@@ -4106,8 +4240,23 @@
       <c r="T11">
         <v>6843</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AD11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE11">
+        <v>24</v>
+      </c>
+      <c r="AF11">
+        <v>315643</v>
+      </c>
+      <c r="AG11">
+        <v>24</v>
+      </c>
+      <c r="AH11">
+        <v>300867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>13</v>
       </c>
@@ -4145,7 +4294,7 @@
         <v>8387</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>15</v>
       </c>
@@ -4183,7 +4332,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="R14" t="s">
         <v>20</v>
       </c>
@@ -4193,8 +4342,70 @@
       <c r="T14">
         <v>12334</v>
       </c>
-    </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH14" s="2"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <v>148567</v>
+      </c>
+      <c r="AG16">
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <v>142642</v>
+      </c>
+    </row>
+    <row r="17" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="AD17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+      <c r="AF17">
+        <v>148689</v>
+      </c>
+      <c r="AG17">
+        <v>4</v>
+      </c>
+      <c r="AH17">
+        <v>142890</v>
+      </c>
+    </row>
+    <row r="18" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>7</v>
       </c>
@@ -4207,8 +4418,23 @@
       <c r="S18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE18">
+        <v>8</v>
+      </c>
+      <c r="AF18">
+        <v>149789</v>
+      </c>
+      <c r="AG18">
+        <v>8</v>
+      </c>
+      <c r="AH18">
+        <v>143034</v>
+      </c>
+    </row>
+    <row r="19" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>9</v>
       </c>
@@ -4245,8 +4471,23 @@
       <c r="T19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE19">
+        <v>12</v>
+      </c>
+      <c r="AF19">
+        <v>170612</v>
+      </c>
+      <c r="AG19">
+        <v>12</v>
+      </c>
+      <c r="AH19">
+        <v>164054</v>
+      </c>
+    </row>
+    <row r="20" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>2</v>
       </c>
@@ -4283,8 +4524,23 @@
       <c r="T20">
         <v>5995</v>
       </c>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE20">
+        <v>16</v>
+      </c>
+      <c r="AF20">
+        <v>220534</v>
+      </c>
+      <c r="AG20">
+        <v>16</v>
+      </c>
+      <c r="AH20">
+        <v>211134</v>
+      </c>
+    </row>
+    <row r="21" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>3</v>
       </c>
@@ -4321,8 +4577,23 @@
       <c r="T21">
         <v>6068</v>
       </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE21">
+        <v>20</v>
+      </c>
+      <c r="AF21">
+        <v>273489</v>
+      </c>
+      <c r="AG21">
+        <v>20</v>
+      </c>
+      <c r="AH21">
+        <v>267842</v>
+      </c>
+    </row>
+    <row r="22" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>6</v>
       </c>
@@ -4359,8 +4630,23 @@
       <c r="T22">
         <v>6133</v>
       </c>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE22">
+        <v>24</v>
+      </c>
+      <c r="AF22">
+        <v>327076</v>
+      </c>
+      <c r="AG22">
+        <v>24</v>
+      </c>
+      <c r="AH22">
+        <v>317323</v>
+      </c>
+    </row>
+    <row r="23" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>8</v>
       </c>
@@ -4398,7 +4684,7 @@
         <v>7054</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>13</v>
       </c>
@@ -4436,7 +4722,7 @@
         <v>8551</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>15</v>
       </c>
@@ -4473,8 +4759,19 @@
       <c r="T25">
         <v>10602</v>
       </c>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH25" s="2"/>
+    </row>
+    <row r="26" spans="7:34" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>20</v>
       </c>
@@ -4484,8 +4781,57 @@
       <c r="T26">
         <v>12371</v>
       </c>
-    </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="AD27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AF27">
+        <v>142567</v>
+      </c>
+      <c r="AG27">
+        <v>2</v>
+      </c>
+      <c r="AH27">
+        <v>135642</v>
+      </c>
+    </row>
+    <row r="28" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="AD28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE28">
+        <v>4</v>
+      </c>
+      <c r="AF28">
+        <v>142712</v>
+      </c>
+      <c r="AG28">
+        <v>4</v>
+      </c>
+      <c r="AH28">
+        <v>135901</v>
+      </c>
+    </row>
+    <row r="29" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>21</v>
       </c>
@@ -4495,8 +4841,23 @@
       <c r="R29" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE29">
+        <v>8</v>
+      </c>
+      <c r="AF29">
+        <v>143249</v>
+      </c>
+      <c r="AG29">
+        <v>8</v>
+      </c>
+      <c r="AH29">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="30" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>9</v>
       </c>
@@ -4530,8 +4891,23 @@
       <c r="S30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE30">
+        <v>12</v>
+      </c>
+      <c r="AF30">
+        <v>166334</v>
+      </c>
+      <c r="AG30">
+        <v>12</v>
+      </c>
+      <c r="AH30">
+        <v>155054</v>
+      </c>
+    </row>
+    <row r="31" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>2</v>
       </c>
@@ -4568,8 +4944,23 @@
       <c r="T31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE31">
+        <v>16</v>
+      </c>
+      <c r="AF31">
+        <v>215292</v>
+      </c>
+      <c r="AG31">
+        <v>16</v>
+      </c>
+      <c r="AH31">
+        <v>208994</v>
+      </c>
+    </row>
+    <row r="32" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4997,23 @@
       <c r="T32">
         <v>5891</v>
       </c>
-    </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE32">
+        <v>20</v>
+      </c>
+      <c r="AF32">
+        <v>268762</v>
+      </c>
+      <c r="AG32">
+        <v>20</v>
+      </c>
+      <c r="AH32">
+        <v>259087</v>
+      </c>
+    </row>
+    <row r="33" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>6</v>
       </c>
@@ -4644,8 +5050,23 @@
       <c r="T33">
         <v>5868</v>
       </c>
-    </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="AD33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE33">
+        <v>24</v>
+      </c>
+      <c r="AF33">
+        <v>3124876</v>
+      </c>
+      <c r="AG33">
+        <v>24</v>
+      </c>
+      <c r="AH33">
+        <v>312348</v>
+      </c>
+    </row>
+    <row r="34" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>8</v>
       </c>
@@ -4683,7 +5104,7 @@
         <v>6197</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>13</v>
       </c>
@@ -4721,7 +5142,7 @@
         <v>9055</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>15</v>
       </c>
@@ -4759,7 +5180,7 @@
         <v>9661</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:34" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
         <v>19</v>
       </c>
@@ -4770,7 +5191,7 @@
         <v>10818</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:34" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
         <v>20</v>
       </c>
@@ -4781,12 +5202,12 @@
         <v>12937</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>7</v>
       </c>
@@ -4800,7 +5221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>9</v>
       </c>
@@ -4838,7 +5259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>2</v>
       </c>
@@ -4876,7 +5297,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>3</v>
       </c>
@@ -4914,7 +5335,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>6</v>
       </c>
@@ -4952,7 +5373,7 @@
         <v>6245</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>8</v>
       </c>
@@ -4990,7 +5411,7 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>13</v>
       </c>
@@ -5028,7 +5449,7 @@
         <v>9945</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>15</v>
       </c>
@@ -5113,6 +5534,9 @@
       <c r="O52">
         <v>24</v>
       </c>
+      <c r="R52" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
@@ -5142,6 +5566,12 @@
       <c r="O53">
         <v>35</v>
       </c>
+      <c r="R53" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
@@ -5171,6 +5601,15 @@
       <c r="O54">
         <v>454</v>
       </c>
+      <c r="R54" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" t="s">
+        <v>11</v>
+      </c>
+      <c r="T54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
@@ -5200,6 +5639,15 @@
       <c r="O55">
         <v>2148</v>
       </c>
+      <c r="R55" t="s">
+        <v>14</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>6201</v>
+      </c>
     </row>
     <row r="56" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
@@ -5229,6 +5677,15 @@
       <c r="O56">
         <v>13198</v>
       </c>
+      <c r="R56" t="s">
+        <v>6</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>6465</v>
+      </c>
     </row>
     <row r="57" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
@@ -5258,6 +5715,15 @@
       <c r="O57">
         <v>26677</v>
       </c>
+      <c r="R57" t="s">
+        <v>16</v>
+      </c>
+      <c r="S57">
+        <v>8</v>
+      </c>
+      <c r="T57">
+        <v>6478</v>
+      </c>
     </row>
     <row r="58" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
@@ -5287,6 +5753,37 @@
       <c r="O58">
         <v>52981</v>
       </c>
+      <c r="R58" t="s">
+        <v>17</v>
+      </c>
+      <c r="S58">
+        <v>12</v>
+      </c>
+      <c r="T58">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="59" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>18</v>
+      </c>
+      <c r="S59">
+        <v>16</v>
+      </c>
+      <c r="T59">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="60" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>19</v>
+      </c>
+      <c r="S60">
+        <v>20</v>
+      </c>
+      <c r="T60">
+        <v>10790</v>
+      </c>
     </row>
     <row r="61" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
@@ -5295,6 +5792,15 @@
       <c r="H61">
         <v>1000</v>
       </c>
+      <c r="R61" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61">
+        <v>24</v>
+      </c>
+      <c r="T61">
+        <v>13265</v>
+      </c>
     </row>
     <row r="62" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
@@ -5500,6 +6006,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>

--- a/pomiary grain grow.xlsx
+++ b/pomiary grain grow.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="33">
   <si>
     <t>rozmiar danych</t>
   </si>
@@ -84,9 +84,6 @@
     <t>number of all taksk:</t>
   </si>
   <si>
-    <t>without work stealing algorithm: weak scalability</t>
-  </si>
-  <si>
     <t>simple parallel algorithm</t>
   </si>
   <si>
@@ -99,16 +96,25 @@
     <t>Recrystalization</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>BusyLeafs weak scalability</t>
   </si>
   <si>
-    <t>Parallel weak scalability</t>
+    <t>BusyLeafs: weak scalability</t>
   </si>
   <si>
-    <t>BusyLeafs: weak scalability</t>
+    <t>time(ms)</t>
+  </si>
+  <si>
+    <t>weak scalability [%]</t>
+  </si>
+  <si>
+    <t>time [ms]</t>
+  </si>
+  <si>
+    <t>without scheduling algorithm: weak scalability</t>
+  </si>
+  <si>
+    <t>without scheduling algorithm weak scalability</t>
   </si>
 </sst>
 </file>
@@ -144,10 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -265,6 +273,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -358,11 +367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121988992"/>
-        <c:axId val="121990528"/>
+        <c:axId val="145651584"/>
+        <c:axId val="145653120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121988992"/>
+        <c:axId val="145651584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +381,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121990528"/>
+        <c:crossAx val="145653120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121990528"/>
+        <c:axId val="145653120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,13 +397,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121988992"/>
+        <c:crossAx val="145651584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -410,6 +420,2739 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Parallel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tasks for core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>space 5000x5000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$42:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$46:$O$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>139995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146494976"/>
+        <c:axId val="146496512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146494976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146496512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146496512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146494976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Parallel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tasks for core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>space 7000x7000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$42:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$47:$O$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>275037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146504704"/>
+        <c:axId val="146535168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146504704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146535168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146535168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146504704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Parallel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tasks for core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>space 10000x10000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$42:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$48:$O$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>565296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>297507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146883328"/>
+        <c:axId val="146884864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146883328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146884864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146884864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146883328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work stealing algorithm: weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$S$20:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$U$9:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>88.589677196616606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.06406171390239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.277500830840808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.996346631594335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.189936806963154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.792546111428024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.608561699367606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42759296"/>
+        <c:axId val="42733952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42759296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42733952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42733952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Weak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> scalability [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42759296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$R$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BusyLeafs: weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$S$56:$S$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$U$56:$U$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>82.760845024995973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.381283836040211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.221982093238651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.566513761467888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.072574037223461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.562557924003706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.688277421786651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42888192"/>
+        <c:axId val="42948864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42888192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42948864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42948864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Weak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> scalability [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42888192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$R$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>without scheduling algorithm: weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$S$33:$S$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$U$33:$U$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>87.115939568833809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.457396046353097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.814264966919481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.675869685256764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.12079494876307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.439452763912001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.669165958104664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="122528512"/>
+        <c:axId val="122586240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="122528512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122586240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="122586240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Weak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> scalability [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122528512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work stealing weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AE$6:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AG$6:$AG$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99.410610486559861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.047492168653008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.16854613099531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.991454500734719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.917227510517307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.801213108956865</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.695386876946422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="80836864"/>
+        <c:axId val="80849536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80836864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80849536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80849536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Weak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> scalability [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80836864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$AD$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BusyLeafs weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AE$17:$AE$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AG$17:$AG$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90.70991539170879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.635487494031167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.969890979978501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.989168405504884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.10849120770493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.276204893066996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.202962002714969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="45289472"/>
+        <c:axId val="45716608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="45289472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45716608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45716608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Weak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> scalability [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45289472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$AD$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>without scheduling algorithm weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AE$28:$AE$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AG$28:$AG$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94.527485322690382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.431442345422951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.077445566810241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.020717351834264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.596380729427935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.142877341290806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.126594066313153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="45779584"/>
+        <c:axId val="46561920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="45779584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46561920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46561920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Weak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> scalability [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45779584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Work stealing 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tasks for core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>space 1000x1000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="145677696"/>
+        <c:axId val="146015360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="145677696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146015360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146015360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145677696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Work stealing 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tasks for core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>space 2000x2000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146052224"/>
+        <c:axId val="146053760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146052224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146053760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146053760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146052224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Work stealing 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tasks for core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>space 5000x5000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$11:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>139995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146066048"/>
+        <c:axId val="146153856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146066048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146153856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146153856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146066048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Work stealing 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tasks for core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>space 7000x7000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$12:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>275037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37721</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146175872"/>
+        <c:axId val="146177408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146175872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146177408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146177408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146175872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Work stealing 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tasks for core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>space 10000x10000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>565296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146197888"/>
+        <c:axId val="146216064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146197888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146216064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146216064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146197888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -556,11 +3299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124388096"/>
-        <c:axId val="124389632"/>
+        <c:axId val="146400000"/>
+        <c:axId val="146401536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124388096"/>
+        <c:axId val="146400000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,12 +3313,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124389632"/>
+        <c:crossAx val="146401536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124389632"/>
+        <c:axId val="146401536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +3329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124388096"/>
+        <c:crossAx val="146400000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -608,7 +3351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -745,11 +3488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124410112"/>
-        <c:axId val="124416000"/>
+        <c:axId val="146430208"/>
+        <c:axId val="146436096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124410112"/>
+        <c:axId val="146430208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,12 +3502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124416000"/>
+        <c:crossAx val="146436096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124416000"/>
+        <c:axId val="146436096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,2022 +3518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124410112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Parallel</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> algorithm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t> 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 2000x2000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$42:$O$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$45:$O$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>22152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11894</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2157</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1865</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="124448768"/>
-        <c:axId val="124450304"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="124448768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124450304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="124450304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124448768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Parallel</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> algorithm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t> 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 5000x5000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$42:$O$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$46:$O$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>139995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19281</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13557</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14876</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13844</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="124478976"/>
-        <c:axId val="124480512"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="124478976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124480512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="124480512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124478976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Parallel</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> algorithm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t> 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 7000x7000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$42:$O$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$47:$O$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>275037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>144247</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72456</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38372</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26554</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29354</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27867</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27448</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="124488704"/>
-        <c:axId val="124515072"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="124488704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124515072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="124515072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124488704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Parallel</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> algorithm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t> 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 10000x10000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$42:$O$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$48:$O$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>565296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>297507</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>149203</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77708</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54392</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56887</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="125129472"/>
-        <c:axId val="125131008"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="125129472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125131008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="125131008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125129472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Work stealing 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 1000x1000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$9:$O$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5204</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2777</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1369</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>637</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="122019200"/>
-        <c:axId val="123143296"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="122019200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123143296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123143296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122019200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Work stealing 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 2000x2000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$10:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>22152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11604</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5739</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2958</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2067</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="123176064"/>
-        <c:axId val="123177600"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="123176064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123177600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123177600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123176064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Work stealing 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 5000x5000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$11:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>139995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36750</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19074</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13086</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13083</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13041</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="123273600"/>
-        <c:axId val="123275136"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="123273600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123275136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123275136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123273600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Work stealing 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 7000x7000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$12:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>275037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>147191</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71930</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37721</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25697</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="123303808"/>
-        <c:axId val="123305344"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="123303808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123305344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123305344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123303808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Work stealing 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>space 10000x10000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$13:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>565296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>294020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>146879</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76676</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53132</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52832</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52665</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="123334656"/>
-        <c:axId val="123336192"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="123334656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123336192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123336192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123334656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Weak scalability 100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$R$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Work stealing algorithm: weak scalability</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$S$8:$S$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$T$8:$T$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5793</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5963</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6843</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8387</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10518</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="123356672"/>
-        <c:axId val="123358208"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="123356672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123358208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123358208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123356672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Weak scalability </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> tasks for core</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$R$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>without work stealing algorithm: weak scalability</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$S$32:$S$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$T$32:$T$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5891</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6197</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9055</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9661</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10818</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12937</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="123182464"/>
-        <c:axId val="123382400"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="123182464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123382400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123382400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123182464"/>
+        <c:crossAx val="146430208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2837,11 +3565,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Work stealing and simple</a:t>
+              <a:t>Parallel</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> parallel algorithm</a:t>
+              <a:t> algorithm</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL"/>
@@ -2849,7 +3577,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> task for core</a:t>
+              <a:t> tasks for core</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2868,36 +3596,39 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>parallel algorithm</c:v>
+            <c:v>space 2000x2000</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$S$43:$S$49</c:f>
+              <c:f>Arkusz1!$H$42:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -2905,101 +3636,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$T$32:$T$38</c:f>
+              <c:f>Arkusz1!$H$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5891</c:v>
+                  <c:v>22152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5868</c:v>
+                  <c:v>11894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6197</c:v>
+                  <c:v>5951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9055</c:v>
+                  <c:v>3044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9661</c:v>
+                  <c:v>2122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10818</c:v>
+                  <c:v>2427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12937</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>work stealing </c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$S$8:$S$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$T$8:$T$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5793</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5963</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6843</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8387</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10518</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12334</c:v>
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,11 +3677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124324864"/>
-        <c:axId val="124355328"/>
+        <c:axId val="146477056"/>
+        <c:axId val="146478592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124324864"/>
+        <c:axId val="146477056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,12 +3691,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124355328"/>
+        <c:crossAx val="146478592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124355328"/>
+        <c:axId val="146478592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,7 +3707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124324864"/>
+        <c:crossAx val="146477056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3260,102 +3923,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>236660</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Wykres 16"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>150935</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Wykres 17"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Wykres 18"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>69</xdr:row>
@@ -3380,7 +3947,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3412,7 +3979,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3444,7 +4011,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3476,7 +4043,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3508,7 +4075,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3540,7 +4107,197 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Wykres 25"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Wykres 26"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Wykres 27"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Wykres 28"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Wykres 29"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3836,10 +4593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AH68"/>
+  <dimension ref="A3:AN68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R65" sqref="R65"/>
+    <sheetView tabSelected="1" topLeftCell="O37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56:U62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,18 +4609,25 @@
     <col min="7" max="7" width="39.140625"/>
     <col min="8" max="17" width="8.5703125"/>
     <col min="18" max="18" width="34.5703125"/>
-    <col min="19" max="22" width="8.5703125"/>
+    <col min="19" max="19" width="8.5703125"/>
+    <col min="20" max="20" width="9.5703125" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125"/>
     <col min="23" max="23" width="25.5703125"/>
     <col min="24" max="29" width="8.5703125"/>
     <col min="30" max="30" width="34.28515625" customWidth="1"/>
     <col min="31" max="31" width="8.28515625" customWidth="1"/>
     <col min="32" max="32" width="17.140625" customWidth="1"/>
-    <col min="33" max="33" width="8.5703125"/>
+    <col min="33" max="33" width="21.28515625" customWidth="1"/>
     <col min="34" max="34" width="17" customWidth="1"/>
-    <col min="35" max="1025" width="8.5703125"/>
+    <col min="35" max="35" width="17.7109375" customWidth="1"/>
+    <col min="36" max="38" width="8.5703125"/>
+    <col min="39" max="39" width="12.28515625" customWidth="1"/>
+    <col min="40" max="40" width="21.7109375" customWidth="1"/>
+    <col min="41" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3871,18 +4635,18 @@
         <v>1</v>
       </c>
       <c r="AD3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="3"/>
+      <c r="AL3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" s="2"/>
+      <c r="AM3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3896,16 +4660,25 @@
         <v>11</v>
       </c>
       <c r="AF4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" t="s">
-        <v>27</v>
+      <c r="AM4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3919,29 +4692,34 @@
         <v>5</v>
       </c>
       <c r="AD5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AE5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>135564</v>
+        <v>134765</v>
       </c>
       <c r="AG5">
-        <v>2</v>
-      </c>
-      <c r="AH5">
-        <v>131190</v>
+        <v>100</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5">
+        <v>130943</v>
+      </c>
+      <c r="AN5">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>22152</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="G6" t="s">
         <v>7</v>
       </c>
@@ -3955,29 +4733,39 @@
         <v>100</v>
       </c>
       <c r="AD6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF6">
-        <v>138865</v>
-      </c>
-      <c r="AG6">
-        <v>4</v>
-      </c>
-      <c r="AH6">
-        <v>132019</v>
+        <v>135564</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>(AF$5/AF6)*100</f>
+        <v>99.410610486559861</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>131190</v>
+      </c>
+      <c r="AN6" s="4">
+        <f>(AM$5/AM6)*100</f>
+        <v>99.811723454531602</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>139995</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="G7" t="s">
         <v>9</v>
       </c>
@@ -4012,32 +4800,51 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" t="s">
+        <v>28</v>
       </c>
       <c r="AD7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF7">
-        <v>138692</v>
-      </c>
-      <c r="AG7">
-        <v>8</v>
-      </c>
-      <c r="AH7">
-        <v>132153</v>
+        <v>138865</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>(AF$5/AF7)*100</f>
+        <v>97.047492168653008</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL7">
+        <v>4</v>
+      </c>
+      <c r="AM7">
+        <v>132019</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" ref="AN7:AN12" si="0">(AM$5/AM7)*100</f>
+        <v>99.184965800377228</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>275037</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="G8" t="s">
         <v>2</v>
       </c>
@@ -4066,38 +4873,57 @@
         <v>790</v>
       </c>
       <c r="R8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>5793</v>
+        <v>5132</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="W8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>5132</v>
       </c>
       <c r="AD8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF8">
-        <v>158563</v>
-      </c>
-      <c r="AG8">
-        <v>12</v>
-      </c>
-      <c r="AH8">
-        <v>154153</v>
+        <v>138692</v>
+      </c>
+      <c r="AG8" s="4">
+        <f t="shared" ref="AG7:AG12" si="1">(AF$5/AF8)*100</f>
+        <v>97.16854613099531</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL8">
+        <v>8</v>
+      </c>
+      <c r="AM8">
+        <v>132153</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="shared" si="0"/>
+        <v>99.08439460322505</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>565296</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -4126,31 +4952,52 @@
         <v>988</v>
       </c>
       <c r="R9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>5963</v>
+        <v>5793</v>
+      </c>
+      <c r="U9" s="4">
+        <f>(X$8/T9)*100</f>
+        <v>88.589677196616606</v>
+      </c>
+      <c r="W9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9">
+        <v>10526</v>
       </c>
       <c r="AD9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF9">
-        <v>210843</v>
-      </c>
-      <c r="AG9">
-        <v>16</v>
-      </c>
-      <c r="AH9">
-        <v>206145</v>
+        <v>158563</v>
+      </c>
+      <c r="AG9" s="4">
+        <f t="shared" si="1"/>
+        <v>84.991454500734719</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL9">
+        <v>12</v>
+      </c>
+      <c r="AM9">
+        <v>154153</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" si="0"/>
+        <v>84.943530129157395</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>6</v>
       </c>
@@ -4179,31 +5026,52 @@
         <v>2029</v>
       </c>
       <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>5963</v>
+      </c>
+      <c r="U10" s="4">
+        <f>(X$8/T10)*100</f>
+        <v>86.06406171390239</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>21588</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE10">
         <v>16</v>
       </c>
-      <c r="S10">
-        <v>8</v>
-      </c>
-      <c r="T10">
-        <v>6018</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE10">
-        <v>20</v>
-      </c>
       <c r="AF10">
-        <v>260158</v>
-      </c>
-      <c r="AG10">
-        <v>20</v>
-      </c>
-      <c r="AH10">
-        <v>252345</v>
+        <v>210843</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="1"/>
+        <v>63.917227510517307</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL10">
+        <v>16</v>
+      </c>
+      <c r="AM10">
+        <v>206145</v>
+      </c>
+      <c r="AN10" s="4">
+        <f t="shared" si="0"/>
+        <v>63.519852530985474</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>8</v>
       </c>
@@ -4232,31 +5100,52 @@
         <v>13022</v>
       </c>
       <c r="R11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>6843</v>
+        <v>6018</v>
+      </c>
+      <c r="U11" s="4">
+        <f>(X$8/T11)*100</f>
+        <v>85.277500830840808</v>
+      </c>
+      <c r="W11" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11">
+        <v>42654</v>
       </c>
       <c r="AD11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11">
         <v>20</v>
       </c>
-      <c r="AE11">
-        <v>24</v>
-      </c>
       <c r="AF11">
-        <v>315643</v>
-      </c>
-      <c r="AG11">
-        <v>24</v>
-      </c>
-      <c r="AH11">
-        <v>300867</v>
+        <v>260158</v>
+      </c>
+      <c r="AG11" s="4">
+        <f t="shared" si="1"/>
+        <v>51.801213108956865</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11">
+        <v>20</v>
+      </c>
+      <c r="AM11">
+        <v>252345</v>
+      </c>
+      <c r="AN11" s="4">
+        <f t="shared" si="0"/>
+        <v>51.890467415641282</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>13</v>
       </c>
@@ -4285,16 +5174,52 @@
         <v>25665</v>
       </c>
       <c r="R12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T12">
-        <v>8387</v>
+        <v>6843</v>
+      </c>
+      <c r="U12" s="4">
+        <f>(X$8/T12)*100</f>
+        <v>74.996346631594335</v>
+      </c>
+      <c r="W12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12">
+        <v>65927</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE12">
+        <v>24</v>
+      </c>
+      <c r="AF12">
+        <v>315643</v>
+      </c>
+      <c r="AG12" s="4">
+        <f t="shared" si="1"/>
+        <v>42.695386876946422</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL12">
+        <v>24</v>
+      </c>
+      <c r="AM12">
+        <v>300867</v>
+      </c>
+      <c r="AN12" s="4">
+        <f t="shared" si="0"/>
+        <v>43.521888409164184</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>15</v>
       </c>
@@ -4323,38 +5248,77 @@
         <v>52554</v>
       </c>
       <c r="R13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13">
+        <v>16</v>
+      </c>
+      <c r="T13">
+        <v>8387</v>
+      </c>
+      <c r="U13" s="4">
+        <f>(X$8/T13)*100</f>
+        <v>61.189936806963154</v>
+      </c>
+      <c r="W13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13">
+        <v>83423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
         <v>19</v>
       </c>
-      <c r="S13">
+      <c r="S14">
         <v>20</v>
       </c>
-      <c r="T13">
+      <c r="T14">
         <v>10518</v>
       </c>
+      <c r="U14" s="4">
+        <f>(X$8/T14)*100</f>
+        <v>48.792546111428024</v>
+      </c>
+      <c r="W14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14">
+        <v>166897</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF14" s="3"/>
+      <c r="AL14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM14" s="2"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R14" t="s">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
         <v>20</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <v>24</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>12334</v>
       </c>
-      <c r="AD14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH14" s="2"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="U15" s="4">
+        <f>(X$8/T15)*100</f>
+        <v>41.608561699367606</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15">
+        <v>334123</v>
+      </c>
       <c r="AD15" t="s">
         <v>10</v>
       </c>
@@ -4362,50 +5326,79 @@
         <v>11</v>
       </c>
       <c r="AF15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL15" t="s">
         <v>11</v>
       </c>
-      <c r="AH15" t="s">
-        <v>27</v>
+      <c r="AM15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AD16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>134765</v>
+      </c>
+      <c r="AG16">
+        <v>100</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>130943</v>
+      </c>
+      <c r="AN16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="7:40" x14ac:dyDescent="0.25">
+      <c r="AD17" t="s">
         <v>14</v>
       </c>
-      <c r="AE16">
+      <c r="AE17">
         <v>2</v>
       </c>
-      <c r="AF16">
+      <c r="AF17">
         <v>148567</v>
       </c>
-      <c r="AG16">
+      <c r="AG17" s="4">
+        <f>(AF$16/AF17)*100</f>
+        <v>90.70991539170879</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL17">
         <v>2</v>
       </c>
-      <c r="AH16">
+      <c r="AM17">
         <v>142642</v>
       </c>
+      <c r="AN17" s="4">
+        <f>(AM$16/AM17)*100</f>
+        <v>91.798348312558716</v>
+      </c>
     </row>
-    <row r="17" spans="7:34" x14ac:dyDescent="0.25">
-      <c r="AD17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE17">
-        <v>4</v>
-      </c>
-      <c r="AF17">
-        <v>148689</v>
-      </c>
-      <c r="AG17">
-        <v>4</v>
-      </c>
-      <c r="AH17">
-        <v>142890</v>
-      </c>
-    </row>
-    <row r="18" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>7</v>
       </c>
@@ -4419,22 +5412,33 @@
         <v>50</v>
       </c>
       <c r="AD18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF18">
-        <v>149789</v>
-      </c>
-      <c r="AG18">
-        <v>8</v>
-      </c>
-      <c r="AH18">
-        <v>143034</v>
+        <v>148689</v>
+      </c>
+      <c r="AG18" s="4">
+        <f t="shared" ref="AG18:AG23" si="2">(AF$16/AF18)*100</f>
+        <v>90.635487494031167</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL18">
+        <v>4</v>
+      </c>
+      <c r="AM18">
+        <v>142890</v>
+      </c>
+      <c r="AN18" s="4">
+        <f t="shared" ref="AN18:AN23" si="3">(AM$16/AM18)*100</f>
+        <v>91.639023024704315</v>
       </c>
     </row>
-    <row r="19" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>9</v>
       </c>
@@ -4472,22 +5476,33 @@
         <v>12</v>
       </c>
       <c r="AD19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF19">
-        <v>170612</v>
-      </c>
-      <c r="AG19">
-        <v>12</v>
-      </c>
-      <c r="AH19">
-        <v>164054</v>
+        <v>149789</v>
+      </c>
+      <c r="AG19" s="4">
+        <f t="shared" si="2"/>
+        <v>89.969890979978501</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL19">
+        <v>8</v>
+      </c>
+      <c r="AM19">
+        <v>143034</v>
+      </c>
+      <c r="AN19" s="4">
+        <f t="shared" si="3"/>
+        <v>91.546765104800258</v>
       </c>
     </row>
-    <row r="20" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>2</v>
       </c>
@@ -4525,22 +5540,33 @@
         <v>5995</v>
       </c>
       <c r="AD20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF20">
-        <v>220534</v>
-      </c>
-      <c r="AG20">
-        <v>16</v>
-      </c>
-      <c r="AH20">
-        <v>211134</v>
+        <v>170612</v>
+      </c>
+      <c r="AG20" s="4">
+        <f t="shared" si="2"/>
+        <v>78.989168405504884</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL20">
+        <v>12</v>
+      </c>
+      <c r="AM20">
+        <v>164054</v>
+      </c>
+      <c r="AN20" s="4">
+        <f t="shared" si="3"/>
+        <v>79.817011471832444</v>
       </c>
     </row>
-    <row r="21" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>3</v>
       </c>
@@ -4578,22 +5604,33 @@
         <v>6068</v>
       </c>
       <c r="AD21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AF21">
-        <v>273489</v>
-      </c>
-      <c r="AG21">
-        <v>20</v>
-      </c>
-      <c r="AH21">
-        <v>267842</v>
+        <v>220534</v>
+      </c>
+      <c r="AG21" s="4">
+        <f t="shared" si="2"/>
+        <v>61.10849120770493</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL21">
+        <v>16</v>
+      </c>
+      <c r="AM21">
+        <v>211134</v>
+      </c>
+      <c r="AN21" s="4">
+        <f t="shared" si="3"/>
+        <v>62.018907423721423</v>
       </c>
     </row>
-    <row r="22" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>6</v>
       </c>
@@ -4631,22 +5668,33 @@
         <v>6133</v>
       </c>
       <c r="AD22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE22">
         <v>20</v>
       </c>
-      <c r="AE22">
-        <v>24</v>
-      </c>
       <c r="AF22">
-        <v>327076</v>
-      </c>
-      <c r="AG22">
-        <v>24</v>
-      </c>
-      <c r="AH22">
-        <v>317323</v>
+        <v>273489</v>
+      </c>
+      <c r="AG22" s="4">
+        <f t="shared" si="2"/>
+        <v>49.276204893066996</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL22">
+        <v>20</v>
+      </c>
+      <c r="AM22">
+        <v>267842</v>
+      </c>
+      <c r="AN22" s="4">
+        <f t="shared" si="3"/>
+        <v>48.888150476773625</v>
       </c>
     </row>
-    <row r="23" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>8</v>
       </c>
@@ -4683,8 +5731,34 @@
       <c r="T23">
         <v>7054</v>
       </c>
+      <c r="AD23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE23">
+        <v>24</v>
+      </c>
+      <c r="AF23">
+        <v>327076</v>
+      </c>
+      <c r="AG23" s="4">
+        <f t="shared" si="2"/>
+        <v>41.202962002714969</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL23">
+        <v>24</v>
+      </c>
+      <c r="AM23">
+        <v>317323</v>
+      </c>
+      <c r="AN23" s="4">
+        <f t="shared" si="3"/>
+        <v>41.264894129955913</v>
+      </c>
     </row>
-    <row r="24" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>13</v>
       </c>
@@ -4722,7 +5796,7 @@
         <v>8551</v>
       </c>
     </row>
-    <row r="25" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>15</v>
       </c>
@@ -4760,18 +5834,18 @@
         <v>10602</v>
       </c>
       <c r="AD25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF25" s="3"/>
+      <c r="AL25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH25" s="2"/>
+      <c r="AM25" s="3"/>
     </row>
-    <row r="26" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:40" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>20</v>
       </c>
@@ -4788,50 +5862,79 @@
         <v>11</v>
       </c>
       <c r="AF26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL26" t="s">
         <v>11</v>
       </c>
-      <c r="AH26" t="s">
-        <v>27</v>
+      <c r="AM26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="27" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:40" x14ac:dyDescent="0.25">
       <c r="AD27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>134765</v>
+      </c>
+      <c r="AG27">
+        <v>100</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>130943</v>
+      </c>
+      <c r="AN27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="7:40" x14ac:dyDescent="0.25">
+      <c r="AD28" t="s">
         <v>14</v>
       </c>
-      <c r="AE27">
+      <c r="AE28">
         <v>2</v>
       </c>
-      <c r="AF27">
+      <c r="AF28">
         <v>142567</v>
       </c>
-      <c r="AG27">
+      <c r="AG28" s="4">
+        <f>(AF$27/AF28)*100</f>
+        <v>94.527485322690382</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL28">
         <v>2</v>
       </c>
-      <c r="AH27">
+      <c r="AM28">
         <v>135642</v>
       </c>
+      <c r="AN28" s="4">
+        <f>(AM$27/AM28)*100</f>
+        <v>96.535733769776328</v>
+      </c>
     </row>
-    <row r="28" spans="7:34" x14ac:dyDescent="0.25">
-      <c r="AD28" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE28">
-        <v>4</v>
-      </c>
-      <c r="AF28">
-        <v>142712</v>
-      </c>
-      <c r="AG28">
-        <v>4</v>
-      </c>
-      <c r="AH28">
-        <v>135901</v>
-      </c>
-    </row>
-    <row r="29" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>21</v>
       </c>
@@ -4839,25 +5942,36 @@
         <v>1000</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AD29" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF29">
-        <v>143249</v>
-      </c>
-      <c r="AG29">
-        <v>8</v>
-      </c>
-      <c r="AH29">
-        <v>136512</v>
+        <v>142712</v>
+      </c>
+      <c r="AG29" s="4">
+        <f t="shared" ref="AG29:AG34" si="4">(AF$27/AF29)*100</f>
+        <v>94.431442345422951</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL29">
+        <v>4</v>
+      </c>
+      <c r="AM29">
+        <v>135901</v>
+      </c>
+      <c r="AN29" s="4">
+        <f t="shared" ref="AN29:AN34" si="5">(AM$27/AM29)*100</f>
+        <v>96.35175605771849</v>
       </c>
     </row>
-    <row r="30" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>9</v>
       </c>
@@ -4892,22 +6006,33 @@
         <v>100</v>
       </c>
       <c r="AD30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF30">
-        <v>166334</v>
-      </c>
-      <c r="AG30">
-        <v>12</v>
-      </c>
-      <c r="AH30">
-        <v>155054</v>
+        <v>143249</v>
+      </c>
+      <c r="AG30" s="4">
+        <f t="shared" si="4"/>
+        <v>94.077445566810241</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL30">
+        <v>8</v>
+      </c>
+      <c r="AM30">
+        <v>136512</v>
+      </c>
+      <c r="AN30" s="4">
+        <f t="shared" si="5"/>
+        <v>95.920505157055786</v>
       </c>
     </row>
-    <row r="31" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>2</v>
       </c>
@@ -4942,25 +6067,39 @@
         <v>11</v>
       </c>
       <c r="T31" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE31">
         <v>12</v>
       </c>
-      <c r="AD31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE31">
-        <v>16</v>
-      </c>
       <c r="AF31">
-        <v>215292</v>
-      </c>
-      <c r="AG31">
-        <v>16</v>
-      </c>
-      <c r="AH31">
-        <v>208994</v>
+        <v>166334</v>
+      </c>
+      <c r="AG31" s="4">
+        <f t="shared" si="4"/>
+        <v>81.020717351834264</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL31">
+        <v>12</v>
+      </c>
+      <c r="AM31">
+        <v>155054</v>
+      </c>
+      <c r="AN31" s="4">
+        <f t="shared" si="5"/>
+        <v>84.449933571529925</v>
       </c>
     </row>
-    <row r="32" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>3</v>
       </c>
@@ -4989,31 +6128,45 @@
         <v>525</v>
       </c>
       <c r="R32" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>5891</v>
+        <v>5132</v>
+      </c>
+      <c r="U32">
+        <v>100</v>
       </c>
       <c r="AD32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AF32">
-        <v>268762</v>
-      </c>
-      <c r="AG32">
-        <v>20</v>
-      </c>
-      <c r="AH32">
-        <v>259087</v>
+        <v>215292</v>
+      </c>
+      <c r="AG32" s="4">
+        <f t="shared" si="4"/>
+        <v>62.596380729427935</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL32">
+        <v>16</v>
+      </c>
+      <c r="AM32">
+        <v>208994</v>
+      </c>
+      <c r="AN32" s="4">
+        <f t="shared" si="5"/>
+        <v>62.653951788089614</v>
       </c>
     </row>
-    <row r="33" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>6</v>
       </c>
@@ -5042,31 +6195,46 @@
         <v>2013</v>
       </c>
       <c r="R33" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>5868</v>
+        <v>5891</v>
+      </c>
+      <c r="U33" s="4">
+        <f>(X$8/T33)*100</f>
+        <v>87.115939568833809</v>
       </c>
       <c r="AD33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE33">
         <v>20</v>
       </c>
-      <c r="AE33">
-        <v>24</v>
-      </c>
       <c r="AF33">
-        <v>3124876</v>
-      </c>
-      <c r="AG33">
-        <v>24</v>
-      </c>
-      <c r="AH33">
-        <v>312348</v>
+        <v>268762</v>
+      </c>
+      <c r="AG33" s="4">
+        <f t="shared" si="4"/>
+        <v>50.142877341290806</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL33">
+        <v>20</v>
+      </c>
+      <c r="AM33">
+        <v>259087</v>
+      </c>
+      <c r="AN33" s="4">
+        <f t="shared" si="5"/>
+        <v>50.540166044610501</v>
       </c>
     </row>
-    <row r="34" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>8</v>
       </c>
@@ -5095,16 +6263,46 @@
         <v>12976</v>
       </c>
       <c r="R34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="S34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T34">
-        <v>6197</v>
+        <v>5868</v>
+      </c>
+      <c r="U34" s="4">
+        <f>(X$8/T34)*100</f>
+        <v>87.457396046353097</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE34">
+        <v>24</v>
+      </c>
+      <c r="AF34">
+        <v>312487</v>
+      </c>
+      <c r="AG34" s="4">
+        <f t="shared" si="4"/>
+        <v>43.126594066313153</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL34">
+        <v>24</v>
+      </c>
+      <c r="AM34">
+        <v>312348</v>
+      </c>
+      <c r="AN34" s="4">
+        <f t="shared" si="5"/>
+        <v>41.9221509342144</v>
       </c>
     </row>
-    <row r="35" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>13</v>
       </c>
@@ -5133,16 +6331,20 @@
         <v>25548</v>
       </c>
       <c r="R35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S35">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T35">
-        <v>9055</v>
+        <v>6197</v>
+      </c>
+      <c r="U35" s="4">
+        <f>(X$8/T35)*100</f>
+        <v>82.814264966919481</v>
       </c>
     </row>
-    <row r="36" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>15</v>
       </c>
@@ -5171,43 +6373,70 @@
         <v>52353</v>
       </c>
       <c r="R36" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36">
+        <v>12</v>
+      </c>
+      <c r="T36">
+        <v>9055</v>
+      </c>
+      <c r="U36" s="4">
+        <f>(X$8/T36)*100</f>
+        <v>56.675869685256764</v>
+      </c>
+    </row>
+    <row r="37" spans="7:40" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
         <v>18</v>
       </c>
-      <c r="S36">
+      <c r="S37">
         <v>16</v>
       </c>
-      <c r="T36">
+      <c r="T37">
         <v>9661</v>
       </c>
+      <c r="U37" s="4">
+        <f>(X$8/T37)*100</f>
+        <v>53.12079494876307</v>
+      </c>
     </row>
-    <row r="37" spans="7:34" x14ac:dyDescent="0.25">
-      <c r="R37" t="s">
+    <row r="38" spans="7:40" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
         <v>19</v>
       </c>
-      <c r="S37">
+      <c r="S38">
         <v>20</v>
       </c>
-      <c r="T37">
+      <c r="T38">
         <v>10818</v>
       </c>
+      <c r="U38" s="4">
+        <f>(X$8/T38)*100</f>
+        <v>47.439452763912001</v>
+      </c>
     </row>
-    <row r="38" spans="7:34" x14ac:dyDescent="0.25">
-      <c r="R38" t="s">
+    <row r="39" spans="7:40" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
         <v>20</v>
       </c>
-      <c r="S38">
+      <c r="S39">
         <v>24</v>
       </c>
-      <c r="T38">
+      <c r="T39">
         <v>12937</v>
       </c>
+      <c r="U39" s="4">
+        <f>(X$8/T39)*100</f>
+        <v>39.669165958104664</v>
+      </c>
     </row>
-    <row r="40" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="41" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>7</v>
       </c>
@@ -5221,7 +6450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>9</v>
       </c>
@@ -5259,7 +6488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>2</v>
       </c>
@@ -5297,7 +6526,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="44" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>3</v>
       </c>
@@ -5335,7 +6564,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="45" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>6</v>
       </c>
@@ -5373,7 +6602,7 @@
         <v>6245</v>
       </c>
     </row>
-    <row r="46" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>8</v>
       </c>
@@ -5411,7 +6640,7 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="47" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>13</v>
       </c>
@@ -5449,7 +6678,7 @@
         <v>9945</v>
       </c>
     </row>
-    <row r="48" spans="7:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>15</v>
       </c>
@@ -5487,7 +6716,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="49" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:21" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>20</v>
       </c>
@@ -5498,7 +6727,7 @@
         <v>12986</v>
       </c>
     </row>
-    <row r="51" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>7</v>
       </c>
@@ -5506,7 +6735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>9</v>
       </c>
@@ -5535,10 +6764,10 @@
         <v>24</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="53" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>2</v>
       </c>
@@ -5573,7 +6802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>3</v>
       </c>
@@ -5608,10 +6837,13 @@
         <v>11</v>
       </c>
       <c r="T54" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="U54" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="55" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>6</v>
       </c>
@@ -5640,16 +6872,19 @@
         <v>2148</v>
       </c>
       <c r="R55" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>6201</v>
+        <v>5132</v>
+      </c>
+      <c r="U55">
+        <v>100</v>
       </c>
     </row>
-    <row r="56" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>8</v>
       </c>
@@ -5678,16 +6913,20 @@
         <v>13198</v>
       </c>
       <c r="R56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>6465</v>
+        <v>6201</v>
+      </c>
+      <c r="U56" s="4">
+        <f>(X$8/T56)*100</f>
+        <v>82.760845024995973</v>
       </c>
     </row>
-    <row r="57" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>13</v>
       </c>
@@ -5716,16 +6955,20 @@
         <v>26677</v>
       </c>
       <c r="R57" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="S57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T57">
-        <v>6478</v>
+        <v>6465</v>
+      </c>
+      <c r="U57" s="4">
+        <f>(X$8/T57)*100</f>
+        <v>79.381283836040211</v>
       </c>
     </row>
-    <row r="58" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>15</v>
       </c>
@@ -5754,38 +6997,50 @@
         <v>52981</v>
       </c>
       <c r="R58" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58">
+        <v>8</v>
+      </c>
+      <c r="T58">
+        <v>6478</v>
+      </c>
+      <c r="U58" s="4">
+        <f>(X$8/T58)*100</f>
+        <v>79.221982093238651</v>
+      </c>
+    </row>
+    <row r="59" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
         <v>17</v>
       </c>
-      <c r="S58">
+      <c r="S59">
         <v>12</v>
       </c>
-      <c r="T58">
+      <c r="T59">
         <v>6976</v>
       </c>
+      <c r="U59" s="4">
+        <f>(X$8/T59)*100</f>
+        <v>73.566513761467888</v>
+      </c>
     </row>
-    <row r="59" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="R59" t="s">
+    <row r="60" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
         <v>18</v>
       </c>
-      <c r="S59">
+      <c r="S60">
         <v>16</v>
       </c>
-      <c r="T59">
+      <c r="T60">
         <v>8543</v>
       </c>
+      <c r="U60" s="4">
+        <f>(X$8/T60)*100</f>
+        <v>60.072574037223461</v>
+      </c>
     </row>
-    <row r="60" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="R60" t="s">
-        <v>19</v>
-      </c>
-      <c r="S60">
-        <v>20</v>
-      </c>
-      <c r="T60">
-        <v>10790</v>
-      </c>
-    </row>
-    <row r="61" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>21</v>
       </c>
@@ -5793,16 +7048,20 @@
         <v>1000</v>
       </c>
       <c r="R61" t="s">
+        <v>19</v>
+      </c>
+      <c r="S61">
         <v>20</v>
       </c>
-      <c r="S61">
-        <v>24</v>
-      </c>
       <c r="T61">
-        <v>13265</v>
+        <v>10790</v>
+      </c>
+      <c r="U61" s="4">
+        <f>(X$8/T61)*100</f>
+        <v>47.562557924003706</v>
       </c>
     </row>
-    <row r="62" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>9</v>
       </c>
@@ -5830,8 +7089,21 @@
       <c r="O62">
         <v>24</v>
       </c>
+      <c r="R62" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62">
+        <v>24</v>
+      </c>
+      <c r="T62">
+        <v>13265</v>
+      </c>
+      <c r="U62" s="4">
+        <f>(X$8/T62)*100</f>
+        <v>38.688277421786651</v>
+      </c>
     </row>
-    <row r="63" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>2</v>
       </c>
@@ -5860,7 +7132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>3</v>
       </c>
@@ -6006,13 +7278,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
     <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AL25:AM25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/pomiary grain grow.xlsx
+++ b/pomiary grain grow.xlsx
@@ -2247,6 +2247,388 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work stealing weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="3"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AE$6:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AG$6:$AG$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99.410610486559861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.047492168653008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.16854613099531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.991454500734719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.917227510517307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.801213108956865</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.695386876946422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$AD$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BusyLeafs weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="3"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AE$17:$AE$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AG$17:$AG$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90.70991539170879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.635487494031167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.969890979978501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.989168405504884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.10849120770493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.276204893066996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.202962002714969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$AD$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>without scheduling algorithm weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="3"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AE$28:$AE$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AG$28:$AG$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94.527485322690382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.431442345422951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.077445566810241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.020717351834264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.596380729427935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.142877341290806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.126594066313153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82696832"/>
+        <c:axId val="82759040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82696832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82759040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82759040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Weak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> scalability [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82696832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -2407,6 +2789,376 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="145677696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work stealing algorithm: weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$S$9:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$U$9:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>88.589677196616606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.06406171390239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.277500830840808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.996346631594335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.189936806963154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.792546111428024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.608561699367606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$R$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BusyLeafs: weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$S$56:$S$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$U$56:$U$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>82.760845024995973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.381283836040211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.221982093238651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.566513761467888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.072574037223461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.562557924003706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.688277421786651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$R$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>without scheduling algorithm: weak scalability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$S$33:$S$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$U$33:$U$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>87.115939568833809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.457396046353097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.814264966919481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.675869685256764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.12079494876307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.439452763912001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.669165958104664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="81859328"/>
+        <c:axId val="81861248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81859328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81861248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81861248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Weak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> scalability [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81859328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4303,6 +5055,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Wykres 30"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Wykres 31"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4595,8 +5411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AN68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U56" sqref="U56:U62"/>
+    <sheetView tabSelected="1" topLeftCell="P28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
